--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_14_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_14_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1120409.365873677</v>
+        <v>1117531.588398668</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25793588.65960982</v>
+        <v>25793588.65960983</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4531414.533550204</v>
+        <v>4531414.533550203</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>0.2956717864458521</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930213</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -743,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="H3" t="n">
         <v>28.11631013281968</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>24.76484596498758</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -825,58 +825,58 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28.11631013281968</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>24.76484596498758</v>
       </c>
-      <c r="F4" t="n">
+      <c r="U4" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="G4" t="n">
+      <c r="V4" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="H4" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -983,58 +983,58 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>24.76484596498758</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>24.76484596498756</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="G6" t="n">
+      <c r="T6" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="H6" t="n">
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="C7" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="S7" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1220,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="G9" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>24.76484596498758</v>
       </c>
       <c r="U9" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1296,55 +1296,55 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>24.76484596498758</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="Y10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>36.36562893939835</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>398.5743746979489</v>
+        <v>286.3613075646576</v>
       </c>
       <c r="H11" t="n">
-        <v>277.2614609331368</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>64.09956378146836</v>
       </c>
       <c r="T11" t="n">
         <v>211.1813372409181</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>89.20840484823303</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>163.8222853925791</v>
@@ -1578,25 +1578,25 @@
         <v>11.85114634893206</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>154.9778450140267</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.6069191183444</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3404886720007</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.75102617872766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>64.09956378146836</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>99.68144270159723</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>47.03877468304837</v>
       </c>
     </row>
     <row r="15">
@@ -1770,19 +1770,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8222853925791</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>135.4935049471435</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>75.55129030293031</v>
@@ -1818,16 +1818,16 @@
         <v>154.9778450140267</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.6069191183444</v>
       </c>
       <c r="U16" t="n">
-        <v>51.19283651173577</v>
+        <v>277.3404886720007</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>160.5975077599561</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1846,22 +1846,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.5743746979489</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>277.2614609331368</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.1813372409181</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6336565424721</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>28.45026745366171</v>
       </c>
       <c r="W17" t="n">
-        <v>168.131898616297</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2013,7 +2013,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>152.216682273806</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>163.8222853925791</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.85114634893206</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>154.9778450140267</v>
+        <v>148.9025171535807</v>
       </c>
       <c r="T19" t="n">
         <v>237.6069191183444</v>
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>55.87501088781374</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.5743746979489</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>277.2614609331368</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>64.09956378146836</v>
       </c>
       <c r="T20" t="n">
         <v>211.1813372409181</v>
@@ -2143,13 +2143,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>73.90769704093938</v>
       </c>
     </row>
     <row r="21">
@@ -2244,7 +2244,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>143.7571309351178</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -2259,7 +2259,7 @@
         <v>135.4935049471435</v>
       </c>
       <c r="I22" t="n">
-        <v>75.55129030293031</v>
+        <v>69.4759624424839</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.85114634893206</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>154.9778450140267</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>286.567480422806</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>64.09956378146836</v>
       </c>
       <c r="T23" t="n">
         <v>211.1813372409181</v>
@@ -2377,7 +2377,7 @@
         <v>255.6336565424721</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>160.7325567177359</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -2487,7 +2487,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>152.2166822738081</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>163.8222853925791</v>
@@ -2526,7 +2526,7 @@
         <v>11.85114634893206</v>
       </c>
       <c r="S25" t="n">
-        <v>154.9778450140267</v>
+        <v>137.0513708046501</v>
       </c>
       <c r="T25" t="n">
         <v>237.6069191183444</v>
@@ -2608,16 +2608,16 @@
         <v>64.09956378146836</v>
       </c>
       <c r="T26" t="n">
-        <v>164.5192534126656</v>
+        <v>211.1813372409181</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6336565424721</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>90.13169583193357</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
@@ -2733,7 +2733,7 @@
         <v>135.4935049471435</v>
       </c>
       <c r="I28" t="n">
-        <v>57.62481609355353</v>
+        <v>57.62481609355351</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>105.3070584732074</v>
       </c>
       <c r="Y29" t="n">
-        <v>98.98815697393387</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>11.85114634893206</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>154.9778450140267</v>
+        <v>148.9025171535821</v>
       </c>
       <c r="T31" t="n">
         <v>237.6069191183444</v>
       </c>
       <c r="U31" t="n">
-        <v>259.4140144626243</v>
+        <v>277.3404886720007</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3037,7 +3037,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>119.4214300828959</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
@@ -3046,7 +3046,7 @@
         <v>398.5743746979489</v>
       </c>
       <c r="H32" t="n">
-        <v>277.2614609331368</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>64.09956378146836</v>
+        <v>39.06528434388203</v>
       </c>
       <c r="T32" t="n">
         <v>211.1813372409181</v>
@@ -3240,7 +3240,7 @@
         <v>154.9778450140267</v>
       </c>
       <c r="T34" t="n">
-        <v>219.6804449089681</v>
+        <v>237.6069191183444</v>
       </c>
       <c r="U34" t="n">
         <v>277.3404886720007</v>
@@ -3249,7 +3249,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>254.1774055798354</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>349.1303962312471</v>
+        <v>398.5743746979489</v>
       </c>
       <c r="H35" t="n">
         <v>277.2614609331368</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.09956378146836</v>
+        <v>31.33811895611447</v>
       </c>
       <c r="T35" t="n">
         <v>211.1813372409181</v>
@@ -3328,13 +3328,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3444,7 +3444,7 @@
         <v>135.4935049471435</v>
       </c>
       <c r="I37" t="n">
-        <v>57.6248160935524</v>
+        <v>75.55129030293031</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>206.1528664177774</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>203.7533860938984</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>193.8678797594263</v>
       </c>
       <c r="G38" t="n">
-        <v>398.5743746979489</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>277.2614609331368</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.09956378146836</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>211.1813372409181</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6336565424721</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3675,7 +3675,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.8222853925791</v>
+        <v>145.8958111832016</v>
       </c>
       <c r="H40" t="n">
         <v>135.4935049471435</v>
@@ -3714,7 +3714,7 @@
         <v>154.9778450140267</v>
       </c>
       <c r="T40" t="n">
-        <v>219.6804449089667</v>
+        <v>237.6069191183444</v>
       </c>
       <c r="U40" t="n">
         <v>277.3404886720007</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>241.4796763753101</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>398.5743746979489</v>
       </c>
       <c r="H41" t="n">
-        <v>277.2614609331368</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.1813372409181</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6336565424721</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>65.19628467362038</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>113.2360569880142</v>
       </c>
       <c r="G43" t="n">
-        <v>163.8222853925791</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>135.4935049471435</v>
       </c>
       <c r="I43" t="n">
         <v>75.55129030293031</v>
@@ -3948,19 +3948,19 @@
         <v>11.85114634893206</v>
       </c>
       <c r="S43" t="n">
-        <v>154.9778450140267</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.6069191183444</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3404886720007</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>198.8103688618646</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,16 +3982,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>9.944077092647749</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.5743746979489</v>
       </c>
       <c r="H44" t="n">
         <v>277.2614609331368</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.09956378146836</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>211.1813372409181</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>57.82929069101747</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>5.282590164873262</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8222853925791</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>135.4935049471435</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>75.55129030293031</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>154.9778450140267</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.6069191183444</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.5627055699159</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359844</v>
+        <v>87.68081948359846</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730262</v>
+        <v>64.82049353730264</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270698</v>
+        <v>45.56827676270699</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63174095096858</v>
+        <v>23.6317409509686</v>
       </c>
       <c r="F2" t="n">
-        <v>2.547963180772885</v>
+        <v>2.5479631807729</v>
       </c>
       <c r="G2" t="n">
         <v>2.249304810625575</v>
@@ -4330,25 +4330,25 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J2" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="K2" t="n">
-        <v>57.91959887360855</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="L2" t="n">
-        <v>57.91959887360855</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="M2" t="n">
-        <v>57.91959887360855</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="N2" t="n">
-        <v>84.63009349978725</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="O2" t="n">
-        <v>84.63009349978725</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="P2" t="n">
-        <v>84.63009349978725</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="Q2" t="n">
         <v>84.63009349978725</v>
@@ -4372,7 +4372,7 @@
         <v>112.4652405312787</v>
       </c>
       <c r="X2" t="n">
-        <v>104.78564573943</v>
+        <v>104.7856457394301</v>
       </c>
       <c r="Y2" t="n">
         <v>103.4887797347244</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.45024460704886</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="C3" t="n">
-        <v>87.45024460704886</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="D3" t="n">
-        <v>59.04993134157444</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="E3" t="n">
-        <v>30.6496180761</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="F3" t="n">
-        <v>30.6496180761</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="G3" t="n">
         <v>30.6496180761</v>
@@ -4406,28 +4406,28 @@
         <v>2.249304810625575</v>
       </c>
       <c r="I3" t="n">
-        <v>2.249304810625575</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="J3" t="n">
-        <v>2.249304810625575</v>
+        <v>37.5310948040289</v>
       </c>
       <c r="K3" t="n">
-        <v>28.95979943680427</v>
+        <v>65.36624183552038</v>
       </c>
       <c r="L3" t="n">
-        <v>28.95979943680427</v>
+        <v>65.36624183552038</v>
       </c>
       <c r="M3" t="n">
-        <v>28.95979943680427</v>
+        <v>65.36624183552038</v>
       </c>
       <c r="N3" t="n">
-        <v>56.79494646829576</v>
+        <v>93.20138886701187</v>
       </c>
       <c r="O3" t="n">
-        <v>84.63009349978725</v>
+        <v>93.20138886701187</v>
       </c>
       <c r="P3" t="n">
-        <v>112.4652405312787</v>
+        <v>93.20138886701187</v>
       </c>
       <c r="Q3" t="n">
         <v>112.4652405312787</v>
@@ -4436,25 +4436,25 @@
         <v>112.4652405312787</v>
       </c>
       <c r="S3" t="n">
-        <v>87.45024460704886</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="T3" t="n">
-        <v>87.45024460704886</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="U3" t="n">
-        <v>87.45024460704886</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="V3" t="n">
-        <v>87.45024460704886</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="W3" t="n">
-        <v>87.45024460704886</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="X3" t="n">
-        <v>87.45024460704886</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="Y3" t="n">
-        <v>87.45024460704886</v>
+        <v>55.66461400032987</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
       <c r="C4" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
       <c r="D4" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
       <c r="E4" t="n">
-        <v>87.45024460704886</v>
+        <v>30.6496180761</v>
       </c>
       <c r="F4" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="G4" t="n">
         <v>30.6496180761</v>
       </c>
       <c r="H4" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="I4" t="n">
         <v>2.249304810625575</v>
@@ -4491,22 +4491,22 @@
         <v>30.08445184211706</v>
       </c>
       <c r="K4" t="n">
+        <v>30.08445184211706</v>
+      </c>
+      <c r="L4" t="n">
+        <v>30.08445184211706</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30.08445184211706</v>
+      </c>
+      <c r="N4" t="n">
         <v>56.79494646829576</v>
-      </c>
-      <c r="L4" t="n">
-        <v>56.79494646829576</v>
-      </c>
-      <c r="M4" t="n">
-        <v>84.63009349978725</v>
-      </c>
-      <c r="N4" t="n">
-        <v>84.63009349978725</v>
       </c>
       <c r="O4" t="n">
         <v>84.63009349978725</v>
       </c>
       <c r="P4" t="n">
-        <v>112.4652405312787</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q4" t="n">
         <v>112.4652405312787</v>
@@ -4518,22 +4518,22 @@
         <v>112.4652405312787</v>
       </c>
       <c r="T4" t="n">
-        <v>112.4652405312787</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="U4" t="n">
-        <v>112.4652405312787</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="V4" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
       <c r="W4" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
       <c r="X4" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
       <c r="Y4" t="n">
-        <v>112.4652405312787</v>
+        <v>30.6496180761</v>
       </c>
     </row>
     <row r="5">
@@ -4567,25 +4567,25 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J5" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="K5" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="L5" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="M5" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="N5" t="n">
+        <v>2.249304810625575</v>
+      </c>
+      <c r="O5" t="n">
+        <v>28.95979943680427</v>
+      </c>
+      <c r="P5" t="n">
         <v>56.79494646829576</v>
-      </c>
-      <c r="O5" t="n">
-        <v>56.79494646829576</v>
-      </c>
-      <c r="P5" t="n">
-        <v>84.63009349978725</v>
       </c>
       <c r="Q5" t="n">
         <v>84.63009349978725</v>
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112.4652405312787</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="C6" t="n">
-        <v>112.4652405312787</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="D6" t="n">
-        <v>112.4652405312787</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="E6" t="n">
-        <v>87.45024460704886</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="F6" t="n">
-        <v>59.04993134157444</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="G6" t="n">
-        <v>30.6496180761</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="H6" t="n">
         <v>2.249304810625575</v>
       </c>
       <c r="I6" t="n">
-        <v>2.249304810625575</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="J6" t="n">
         <v>28.95979943680427</v>
@@ -4652,46 +4652,46 @@
         <v>28.95979943680427</v>
       </c>
       <c r="L6" t="n">
+        <v>28.95979943680427</v>
+      </c>
+      <c r="M6" t="n">
+        <v>28.95979943680427</v>
+      </c>
+      <c r="N6" t="n">
+        <v>28.95979943680427</v>
+      </c>
+      <c r="O6" t="n">
+        <v>28.95979943680427</v>
+      </c>
+      <c r="P6" t="n">
         <v>56.79494646829576</v>
       </c>
-      <c r="M6" t="n">
+      <c r="Q6" t="n">
         <v>84.63009349978725</v>
-      </c>
-      <c r="N6" t="n">
-        <v>112.4652405312787</v>
-      </c>
-      <c r="O6" t="n">
-        <v>112.4652405312787</v>
-      </c>
-      <c r="P6" t="n">
-        <v>112.4652405312787</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>112.4652405312787</v>
       </c>
       <c r="R6" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="S6" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T6" t="n">
-        <v>112.4652405312787</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="U6" t="n">
-        <v>112.4652405312787</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="V6" t="n">
-        <v>112.4652405312787</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="W6" t="n">
-        <v>112.4652405312787</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="X6" t="n">
-        <v>112.4652405312787</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="Y6" t="n">
-        <v>112.4652405312787</v>
+        <v>27.26430073485544</v>
       </c>
     </row>
     <row r="7">
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.26430073485544</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="C7" t="n">
         <v>2.249304810625575</v>
@@ -4731,46 +4731,46 @@
         <v>57.91959887360855</v>
       </c>
       <c r="L7" t="n">
-        <v>57.91959887360855</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="M7" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="N7" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="O7" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="P7" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Q7" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="R7" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="S7" t="n">
-        <v>84.0649272658043</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="T7" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="U7" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="V7" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="W7" t="n">
-        <v>55.66461400032987</v>
+        <v>30.6496180761</v>
       </c>
       <c r="X7" t="n">
-        <v>27.26430073485544</v>
+        <v>30.6496180761</v>
       </c>
       <c r="Y7" t="n">
-        <v>27.26430073485544</v>
+        <v>30.6496180761</v>
       </c>
     </row>
     <row r="8">
@@ -4810,19 +4810,19 @@
         <v>2.249304810625575</v>
       </c>
       <c r="L8" t="n">
-        <v>2.249304810625575</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="M8" t="n">
-        <v>2.249304810625575</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="N8" t="n">
-        <v>30.08445184211706</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="O8" t="n">
+        <v>28.95979943680427</v>
+      </c>
+      <c r="P8" t="n">
         <v>56.79494646829576</v>
-      </c>
-      <c r="P8" t="n">
-        <v>84.63009349978725</v>
       </c>
       <c r="Q8" t="n">
         <v>84.63009349978725</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.26430073485544</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26430073485544</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="D9" t="n">
-        <v>27.26430073485544</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="E9" t="n">
-        <v>27.26430073485544</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="F9" t="n">
-        <v>27.26430073485544</v>
+        <v>30.6496180761</v>
       </c>
       <c r="G9" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="H9" t="n">
         <v>2.249304810625575</v>
@@ -4883,10 +4883,10 @@
         <v>9.695947772537416</v>
       </c>
       <c r="J9" t="n">
-        <v>9.695947772537416</v>
+        <v>37.5310948040289</v>
       </c>
       <c r="K9" t="n">
-        <v>37.5310948040289</v>
+        <v>65.36624183552038</v>
       </c>
       <c r="L9" t="n">
         <v>65.36624183552038</v>
@@ -4904,31 +4904,31 @@
         <v>65.36624183552038</v>
       </c>
       <c r="Q9" t="n">
-        <v>93.20138886701187</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="R9" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="S9" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="T9" t="n">
-        <v>84.0649272658043</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="U9" t="n">
-        <v>55.66461400032987</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="V9" t="n">
-        <v>27.26430073485544</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="W9" t="n">
-        <v>27.26430073485544</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="X9" t="n">
-        <v>27.26430073485544</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="Y9" t="n">
-        <v>27.26430073485544</v>
+        <v>87.45024460704886</v>
       </c>
     </row>
     <row r="10">
@@ -4944,10 +4944,10 @@
         <v>30.6496180761</v>
       </c>
       <c r="D10" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="E10" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="F10" t="n">
         <v>2.249304810625575</v>
@@ -4962,22 +4962,22 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J10" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="K10" t="n">
+        <v>28.95979943680427</v>
+      </c>
+      <c r="L10" t="n">
+        <v>28.95979943680427</v>
+      </c>
+      <c r="M10" t="n">
+        <v>28.95979943680427</v>
+      </c>
+      <c r="N10" t="n">
+        <v>28.95979943680427</v>
+      </c>
+      <c r="O10" t="n">
         <v>56.79494646829576</v>
-      </c>
-      <c r="L10" t="n">
-        <v>56.79494646829576</v>
-      </c>
-      <c r="M10" t="n">
-        <v>84.63009349978725</v>
-      </c>
-      <c r="N10" t="n">
-        <v>84.63009349978725</v>
-      </c>
-      <c r="O10" t="n">
-        <v>84.63009349978725</v>
       </c>
       <c r="P10" t="n">
         <v>84.63009349978725</v>
@@ -4989,22 +4989,22 @@
         <v>112.4652405312787</v>
       </c>
       <c r="S10" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T10" t="n">
-        <v>112.4652405312787</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="U10" t="n">
-        <v>112.4652405312787</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="V10" t="n">
-        <v>112.4652405312787</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="W10" t="n">
-        <v>87.45024460704886</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="X10" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="Y10" t="n">
         <v>30.6496180761</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1180.798834179312</v>
+        <v>1178.410749474396</v>
       </c>
       <c r="C11" t="n">
-        <v>1144.065875654667</v>
+        <v>751.5100194876966</v>
       </c>
       <c r="D11" t="n">
-        <v>1144.065875654667</v>
+        <v>751.5100194876966</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.065875654667</v>
+        <v>325.5330796355541</v>
       </c>
       <c r="F11" t="n">
-        <v>718.9416938440675</v>
+        <v>325.5330796355541</v>
       </c>
       <c r="G11" t="n">
-        <v>316.3413153612908</v>
+        <v>36.27923361064752</v>
       </c>
       <c r="H11" t="n">
-        <v>36.27923361064751</v>
+        <v>36.27923361064752</v>
       </c>
       <c r="I11" t="n">
-        <v>67.7735130363568</v>
+        <v>67.77351303635682</v>
       </c>
       <c r="J11" t="n">
-        <v>193.7198325172135</v>
+        <v>183.27976252279</v>
       </c>
       <c r="K11" t="n">
-        <v>375.0787678060283</v>
+        <v>375.0787678060285</v>
       </c>
       <c r="L11" t="n">
-        <v>606.0671001877731</v>
+        <v>606.0671001877733</v>
       </c>
       <c r="M11" t="n">
-        <v>868.2324102339578</v>
+        <v>868.232410233958</v>
       </c>
       <c r="N11" t="n">
-        <v>1135.389572943643</v>
+        <v>1135.389572943644</v>
       </c>
       <c r="O11" t="n">
         <v>1385.491526052463</v>
@@ -5068,25 +5068,25 @@
         <v>1813.961680532376</v>
       </c>
       <c r="S11" t="n">
-        <v>1813.961680532376</v>
+        <v>1749.21464640968</v>
       </c>
       <c r="T11" t="n">
-        <v>1600.647198470842</v>
+        <v>1535.900164348147</v>
       </c>
       <c r="U11" t="n">
-        <v>1600.647198470842</v>
+        <v>1535.900164348147</v>
       </c>
       <c r="V11" t="n">
-        <v>1600.647198470842</v>
+        <v>1178.410749474396</v>
       </c>
       <c r="W11" t="n">
-        <v>1600.647198470842</v>
+        <v>1178.410749474396</v>
       </c>
       <c r="X11" t="n">
-        <v>1600.647198470842</v>
+        <v>1178.410749474396</v>
       </c>
       <c r="Y11" t="n">
-        <v>1600.647198470842</v>
+        <v>1178.410749474396</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>593.4879205506644</v>
+        <v>593.4879205506649</v>
       </c>
       <c r="C12" t="n">
-        <v>475.9820170681692</v>
+        <v>475.9820170681696</v>
       </c>
       <c r="D12" t="n">
-        <v>372.1420585834543</v>
+        <v>372.1420585834545</v>
       </c>
       <c r="E12" t="n">
-        <v>267.4401248563915</v>
+        <v>267.4401248563918</v>
       </c>
       <c r="F12" t="n">
-        <v>173.7942945392956</v>
+        <v>173.7942945392958</v>
       </c>
       <c r="G12" t="n">
-        <v>80.67080067165178</v>
+        <v>80.67080067165179</v>
       </c>
       <c r="H12" t="n">
-        <v>36.27923361064751</v>
+        <v>36.27923361064752</v>
       </c>
       <c r="I12" t="n">
-        <v>51.66049294899003</v>
+        <v>75.11779879340187</v>
       </c>
       <c r="J12" t="n">
-        <v>186.1256175377884</v>
+        <v>432.957122029575</v>
       </c>
       <c r="K12" t="n">
-        <v>635.0811334695513</v>
+        <v>635.0811334695516</v>
       </c>
       <c r="L12" t="n">
-        <v>810.7602561629493</v>
+        <v>810.7602561629495</v>
       </c>
       <c r="M12" t="n">
         <v>1018.914997175244</v>
@@ -5150,7 +5150,7 @@
         <v>1749.916937343524</v>
       </c>
       <c r="T12" t="n">
-        <v>1611.78667446426</v>
+        <v>1611.786674464261</v>
       </c>
       <c r="U12" t="n">
         <v>1427.079680878289</v>
@@ -5162,10 +5162,10 @@
         <v>1025.585164850772</v>
       </c>
       <c r="X12" t="n">
-        <v>862.1078186174348</v>
+        <v>862.1078186174352</v>
       </c>
       <c r="Y12" t="n">
-        <v>722.4149299707271</v>
+        <v>722.4149299707276</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>753.1136193896385</v>
+        <v>848.8766876146317</v>
       </c>
       <c r="C13" t="n">
-        <v>581.1410562685545</v>
+        <v>676.9041244935477</v>
       </c>
       <c r="D13" t="n">
-        <v>581.1410562685545</v>
+        <v>676.9041244935477</v>
       </c>
       <c r="E13" t="n">
-        <v>414.9328504214081</v>
+        <v>586.7946246468476</v>
       </c>
       <c r="F13" t="n">
         <v>414.9328504214081</v>
@@ -5196,55 +5196,55 @@
         <v>112.5936682600721</v>
       </c>
       <c r="I13" t="n">
-        <v>36.27923361064751</v>
+        <v>36.27923361064752</v>
       </c>
       <c r="J13" t="n">
         <v>147.8131801616682</v>
       </c>
       <c r="K13" t="n">
-        <v>463.1494045149021</v>
+        <v>215.8667954008801</v>
       </c>
       <c r="L13" t="n">
-        <v>568.9807189987591</v>
+        <v>307.8116849940049</v>
       </c>
       <c r="M13" t="n">
-        <v>1017.936234930522</v>
+        <v>756.7672009257678</v>
       </c>
       <c r="N13" t="n">
-        <v>1466.891750862285</v>
+        <v>1205.722716857531</v>
       </c>
       <c r="O13" t="n">
-        <v>1552.661097703299</v>
+        <v>1291.492063698545</v>
       </c>
       <c r="P13" t="n">
-        <v>1622.954020728963</v>
+        <v>1622.954020728964</v>
       </c>
       <c r="Q13" t="n">
         <v>1813.961680532376</v>
       </c>
       <c r="R13" t="n">
-        <v>1801.990825634464</v>
+        <v>1801.990825634465</v>
       </c>
       <c r="S13" t="n">
-        <v>1801.990825634464</v>
+        <v>1645.447547842519</v>
       </c>
       <c r="T13" t="n">
-        <v>1801.990825634464</v>
+        <v>1405.44055883409</v>
       </c>
       <c r="U13" t="n">
-        <v>1521.848917884969</v>
+        <v>1405.44055883409</v>
       </c>
       <c r="V13" t="n">
-        <v>1240.137450492998</v>
+        <v>1123.729091442119</v>
       </c>
       <c r="W13" t="n">
-        <v>1240.137450492998</v>
+        <v>848.8766876146317</v>
       </c>
       <c r="X13" t="n">
-        <v>997.5735539388028</v>
+        <v>848.8766876146317</v>
       </c>
       <c r="Y13" t="n">
-        <v>943.2795881017041</v>
+        <v>848.8766876146317</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1713.273354571166</v>
+        <v>1289.980733756167</v>
       </c>
       <c r="C14" t="n">
-        <v>1713.273354571166</v>
+        <v>1289.980733756167</v>
       </c>
       <c r="D14" t="n">
         <v>1289.980733756167</v>
@@ -5278,25 +5278,25 @@
         <v>67.7735130363568</v>
       </c>
       <c r="J14" t="n">
-        <v>183.27976252279</v>
+        <v>193.7198325172135</v>
       </c>
       <c r="K14" t="n">
-        <v>364.6386978116047</v>
+        <v>375.0787678060283</v>
       </c>
       <c r="L14" t="n">
-        <v>595.6270301933496</v>
+        <v>606.0671001877731</v>
       </c>
       <c r="M14" t="n">
-        <v>857.7923402395343</v>
+        <v>868.2324102339578</v>
       </c>
       <c r="N14" t="n">
-        <v>1124.94950294922</v>
+        <v>1135.389572943643</v>
       </c>
       <c r="O14" t="n">
-        <v>1375.05145605804</v>
+        <v>1385.491526052463</v>
       </c>
       <c r="P14" t="n">
-        <v>1582.90127408365</v>
+        <v>1593.341344078074</v>
       </c>
       <c r="Q14" t="n">
         <v>1741.599829975285</v>
@@ -5305,25 +5305,25 @@
         <v>1813.961680532376</v>
       </c>
       <c r="S14" t="n">
-        <v>1813.961680532376</v>
+        <v>1749.21464640968</v>
       </c>
       <c r="T14" t="n">
-        <v>1813.961680532376</v>
+        <v>1749.21464640968</v>
       </c>
       <c r="U14" t="n">
-        <v>1813.961680532376</v>
+        <v>1749.21464640968</v>
       </c>
       <c r="V14" t="n">
-        <v>1813.961680532376</v>
+        <v>1749.21464640968</v>
       </c>
       <c r="W14" t="n">
-        <v>1813.961680532376</v>
+        <v>1749.21464640968</v>
       </c>
       <c r="X14" t="n">
-        <v>1713.273354571166</v>
+        <v>1337.494647577427</v>
       </c>
       <c r="Y14" t="n">
-        <v>1713.273354571166</v>
+        <v>1289.980733756167</v>
       </c>
     </row>
     <row r="15">
@@ -5339,13 +5339,13 @@
         <v>475.9820170681692</v>
       </c>
       <c r="D15" t="n">
-        <v>372.1420585834542</v>
+        <v>372.1420585834543</v>
       </c>
       <c r="E15" t="n">
-        <v>267.4401248563914</v>
+        <v>267.4401248563915</v>
       </c>
       <c r="F15" t="n">
-        <v>173.7942945392955</v>
+        <v>173.7942945392956</v>
       </c>
       <c r="G15" t="n">
         <v>80.67080067165178</v>
@@ -5354,43 +5354,43 @@
         <v>36.27923361064751</v>
       </c>
       <c r="I15" t="n">
-        <v>51.66049294899003</v>
+        <v>75.11779879340187</v>
       </c>
       <c r="J15" t="n">
-        <v>117.397323715572</v>
+        <v>432.957122029575</v>
       </c>
       <c r="K15" t="n">
-        <v>242.4521969218152</v>
+        <v>558.0119952358182</v>
       </c>
       <c r="L15" t="n">
-        <v>555.7967483506503</v>
+        <v>733.6911179292161</v>
       </c>
       <c r="M15" t="n">
-        <v>763.9514893629453</v>
+        <v>941.8458589415111</v>
       </c>
       <c r="N15" t="n">
-        <v>979.9568717848817</v>
+        <v>1157.851241363448</v>
       </c>
       <c r="O15" t="n">
-        <v>1428.912387716645</v>
+        <v>1351.843249482912</v>
       </c>
       <c r="P15" t="n">
         <v>1581.466453605526</v>
       </c>
       <c r="Q15" t="n">
-        <v>1675.332937204583</v>
+        <v>1675.332937204584</v>
       </c>
       <c r="R15" t="n">
-        <v>1813.961680532375</v>
+        <v>1813.961680532376</v>
       </c>
       <c r="S15" t="n">
-        <v>1749.916937343523</v>
+        <v>1749.916937343524</v>
       </c>
       <c r="T15" t="n">
         <v>1611.78667446426</v>
       </c>
       <c r="U15" t="n">
-        <v>1427.079680878288</v>
+        <v>1427.079680878289</v>
       </c>
       <c r="V15" t="n">
         <v>1222.106542017555</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1088.292166488307</v>
+        <v>450.7744372283025</v>
       </c>
       <c r="C16" t="n">
-        <v>916.3196033672234</v>
+        <v>278.8018741072185</v>
       </c>
       <c r="D16" t="n">
-        <v>753.0028304939941</v>
+        <v>278.8018741072185</v>
       </c>
       <c r="E16" t="n">
-        <v>586.7946246468476</v>
+        <v>112.5936682600721</v>
       </c>
       <c r="F16" t="n">
-        <v>414.9328504214081</v>
+        <v>112.5936682600721</v>
       </c>
       <c r="G16" t="n">
-        <v>249.455794469308</v>
+        <v>112.5936682600721</v>
       </c>
       <c r="H16" t="n">
         <v>112.5936682600721</v>
@@ -5436,25 +5436,25 @@
         <v>36.27923361064751</v>
       </c>
       <c r="J16" t="n">
-        <v>69.89146351344729</v>
+        <v>147.8131801616682</v>
       </c>
       <c r="K16" t="n">
-        <v>137.9450787526591</v>
+        <v>215.8667954008801</v>
       </c>
       <c r="L16" t="n">
-        <v>586.900594684422</v>
+        <v>307.8116849940049</v>
       </c>
       <c r="M16" t="n">
-        <v>1035.856110616185</v>
+        <v>756.7672009257678</v>
       </c>
       <c r="N16" t="n">
-        <v>1484.811626547948</v>
+        <v>1205.722716857531</v>
       </c>
       <c r="O16" t="n">
-        <v>1570.580973388962</v>
+        <v>1654.678232789294</v>
       </c>
       <c r="P16" t="n">
-        <v>1640.873896414626</v>
+        <v>1724.971155814958</v>
       </c>
       <c r="Q16" t="n">
         <v>1813.961680532376</v>
@@ -5466,22 +5466,22 @@
         <v>1657.418402740429</v>
       </c>
       <c r="T16" t="n">
-        <v>1657.418402740429</v>
+        <v>1417.411413732001</v>
       </c>
       <c r="U16" t="n">
-        <v>1605.708466869989</v>
+        <v>1137.269505982505</v>
       </c>
       <c r="V16" t="n">
-        <v>1605.708466869989</v>
+        <v>855.5580385905339</v>
       </c>
       <c r="W16" t="n">
-        <v>1330.856063042502</v>
+        <v>693.3383337824974</v>
       </c>
       <c r="X16" t="n">
-        <v>1088.292166488307</v>
+        <v>450.7744372283025</v>
       </c>
       <c r="Y16" t="n">
-        <v>1088.292166488307</v>
+        <v>450.7744372283025</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1167.75000770555</v>
+        <v>1336.133656315372</v>
       </c>
       <c r="C17" t="n">
-        <v>1167.75000770555</v>
+        <v>909.2329263286723</v>
       </c>
       <c r="D17" t="n">
-        <v>1167.75000770555</v>
+        <v>485.9403055136726</v>
       </c>
       <c r="E17" t="n">
-        <v>1167.75000770555</v>
+        <v>59.96336566153012</v>
       </c>
       <c r="F17" t="n">
-        <v>742.6258258949501</v>
+        <v>59.96336566153012</v>
       </c>
       <c r="G17" t="n">
-        <v>340.0254474121734</v>
+        <v>59.96336566153012</v>
       </c>
       <c r="H17" t="n">
-        <v>59.9633656615301</v>
+        <v>59.96336566153012</v>
       </c>
       <c r="I17" t="n">
-        <v>91.4576450872394</v>
+        <v>91.45764508723943</v>
       </c>
       <c r="J17" t="n">
         <v>598.6931132812988</v>
       </c>
       <c r="K17" t="n">
-        <v>872.8498800365824</v>
+        <v>1067.436462987424</v>
       </c>
       <c r="L17" t="n">
-        <v>1103.838212418327</v>
+        <v>1298.424795369168</v>
       </c>
       <c r="M17" t="n">
-        <v>1366.003522464512</v>
+        <v>1560.590105415353</v>
       </c>
       <c r="N17" t="n">
-        <v>1633.160685174197</v>
+        <v>1827.747268125039</v>
       </c>
       <c r="O17" t="n">
-        <v>1883.262638283017</v>
+        <v>2077.849221233858</v>
       </c>
       <c r="P17" t="n">
-        <v>2625.309288344452</v>
+        <v>2285.699039259469</v>
       </c>
       <c r="Q17" t="n">
-        <v>2773.567774241663</v>
+        <v>2925.806432519415</v>
       </c>
       <c r="R17" t="n">
-        <v>2998.168283076505</v>
+        <v>2998.168283076506</v>
       </c>
       <c r="S17" t="n">
-        <v>2998.168283076505</v>
+        <v>2998.168283076506</v>
       </c>
       <c r="T17" t="n">
-        <v>2784.853801014971</v>
+        <v>2998.168283076506</v>
       </c>
       <c r="U17" t="n">
-        <v>2526.637986325606</v>
+        <v>2998.168283076506</v>
       </c>
       <c r="V17" t="n">
-        <v>2169.148571451855</v>
+        <v>2969.430639183918</v>
       </c>
       <c r="W17" t="n">
-        <v>1999.318370829333</v>
+        <v>2573.039289484265</v>
       </c>
       <c r="X17" t="n">
-        <v>1587.59837199708</v>
+        <v>2161.319290652012</v>
       </c>
       <c r="Y17" t="n">
-        <v>1587.59837199708</v>
+        <v>1755.982020606902</v>
       </c>
     </row>
     <row r="18">
@@ -5588,22 +5588,22 @@
         <v>104.3549327225344</v>
       </c>
       <c r="H18" t="n">
-        <v>59.9633656615301</v>
+        <v>59.96336566153012</v>
       </c>
       <c r="I18" t="n">
-        <v>75.34462499987262</v>
+        <v>98.80193084428447</v>
       </c>
       <c r="J18" t="n">
-        <v>141.0814557664546</v>
+        <v>456.6412540804575</v>
       </c>
       <c r="K18" t="n">
-        <v>266.1363289726978</v>
+        <v>658.7652655204336</v>
       </c>
       <c r="L18" t="n">
-        <v>441.8154516660958</v>
+        <v>834.4443882138315</v>
       </c>
       <c r="M18" t="n">
-        <v>649.9701926783907</v>
+        <v>1042.599129226126</v>
       </c>
       <c r="N18" t="n">
         <v>1258.604511648063</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1093.868748832746</v>
+        <v>1111.97629853919</v>
       </c>
       <c r="C19" t="n">
-        <v>921.8961857116624</v>
+        <v>940.003735418106</v>
       </c>
       <c r="D19" t="n">
-        <v>758.5794128384331</v>
+        <v>776.6869625448767</v>
       </c>
       <c r="E19" t="n">
-        <v>592.3712069912866</v>
+        <v>610.4787566977302</v>
       </c>
       <c r="F19" t="n">
         <v>438.6169824722907</v>
@@ -5670,55 +5670,55 @@
         <v>136.2778003109547</v>
       </c>
       <c r="I19" t="n">
-        <v>59.9633656615301</v>
+        <v>59.96336566153012</v>
       </c>
       <c r="J19" t="n">
-        <v>171.4973122125486</v>
+        <v>171.4973122125508</v>
       </c>
       <c r="K19" t="n">
-        <v>486.8335365657825</v>
+        <v>486.8335365657847</v>
       </c>
       <c r="L19" t="n">
-        <v>955.1673197500724</v>
+        <v>955.1673197500745</v>
       </c>
       <c r="M19" t="n">
-        <v>1466.175265653857</v>
+        <v>1466.175265653859</v>
       </c>
       <c r="N19" t="n">
-        <v>1960.639824529903</v>
+        <v>1960.639824529905</v>
       </c>
       <c r="O19" t="n">
-        <v>2424.11149567412</v>
+        <v>2424.111495674123</v>
       </c>
       <c r="P19" t="n">
-        <v>2807.160623273092</v>
+        <v>2807.160623273095</v>
       </c>
       <c r="Q19" t="n">
-        <v>2998.168283076505</v>
+        <v>2998.168283076506</v>
       </c>
       <c r="R19" t="n">
-        <v>2986.197428178594</v>
+        <v>2998.168283076506</v>
       </c>
       <c r="S19" t="n">
-        <v>2829.654150386647</v>
+        <v>2847.761700093091</v>
       </c>
       <c r="T19" t="n">
-        <v>2589.647161378219</v>
+        <v>2607.754711084662</v>
       </c>
       <c r="U19" t="n">
-        <v>2309.505253628723</v>
+        <v>2327.612803335167</v>
       </c>
       <c r="V19" t="n">
-        <v>2027.793786236752</v>
+        <v>2045.901335943195</v>
       </c>
       <c r="W19" t="n">
-        <v>1752.941382409265</v>
+        <v>1771.048932115708</v>
       </c>
       <c r="X19" t="n">
-        <v>1510.37748585507</v>
+        <v>1528.485035561514</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.034717544812</v>
+        <v>1302.142267251256</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1367.419951707092</v>
+        <v>1618.027299061615</v>
       </c>
       <c r="C20" t="n">
-        <v>1367.419951707092</v>
+        <v>1191.126569074916</v>
       </c>
       <c r="D20" t="n">
-        <v>944.1273308920922</v>
+        <v>1191.126569074916</v>
       </c>
       <c r="E20" t="n">
-        <v>887.6879259549066</v>
+        <v>765.1496292227732</v>
       </c>
       <c r="F20" t="n">
-        <v>462.5637441443068</v>
+        <v>340.0254474121734</v>
       </c>
       <c r="G20" t="n">
-        <v>59.9633656615301</v>
+        <v>340.0254474121734</v>
       </c>
       <c r="H20" t="n">
-        <v>59.9633656615301</v>
+        <v>59.96336566153012</v>
       </c>
       <c r="I20" t="n">
-        <v>91.4576450872394</v>
+        <v>91.45764508723943</v>
       </c>
       <c r="J20" t="n">
         <v>598.6931132812988</v>
       </c>
       <c r="K20" t="n">
-        <v>895.9883943927163</v>
+        <v>915.1978047096718</v>
       </c>
       <c r="L20" t="n">
-        <v>1638.035044454151</v>
+        <v>1146.186137091417</v>
       </c>
       <c r="M20" t="n">
-        <v>1900.200354500336</v>
+        <v>1408.351447137601</v>
       </c>
       <c r="N20" t="n">
-        <v>2167.357517210021</v>
+        <v>1675.508609847287</v>
       </c>
       <c r="O20" t="n">
-        <v>2417.459470318841</v>
+        <v>1925.610562956107</v>
       </c>
       <c r="P20" t="n">
-        <v>2625.309288344452</v>
+        <v>2133.460380981717</v>
       </c>
       <c r="Q20" t="n">
-        <v>2773.567774241663</v>
+        <v>2773.567774241664</v>
       </c>
       <c r="R20" t="n">
-        <v>2998.168283076505</v>
+        <v>2998.168283076506</v>
       </c>
       <c r="S20" t="n">
-        <v>2998.168283076505</v>
+        <v>2933.42124895381</v>
       </c>
       <c r="T20" t="n">
-        <v>2784.853801014971</v>
+        <v>2720.106766892277</v>
       </c>
       <c r="U20" t="n">
-        <v>2526.637986325606</v>
+        <v>2461.890952202911</v>
       </c>
       <c r="V20" t="n">
-        <v>2169.148571451855</v>
+        <v>2104.40153732916</v>
       </c>
       <c r="W20" t="n">
-        <v>1772.757221752202</v>
+        <v>2104.40153732916</v>
       </c>
       <c r="X20" t="n">
-        <v>1772.757221752202</v>
+        <v>1692.681538496908</v>
       </c>
       <c r="Y20" t="n">
-        <v>1367.419951707092</v>
+        <v>1618.027299061615</v>
       </c>
     </row>
     <row r="21">
@@ -5825,22 +5825,22 @@
         <v>104.3549327225344</v>
       </c>
       <c r="H21" t="n">
-        <v>59.9633656615301</v>
+        <v>59.96336566153012</v>
       </c>
       <c r="I21" t="n">
-        <v>75.34462499987262</v>
+        <v>98.80193084428447</v>
       </c>
       <c r="J21" t="n">
-        <v>141.0814557664546</v>
+        <v>456.6412540804575</v>
       </c>
       <c r="K21" t="n">
-        <v>266.1363289726978</v>
+        <v>581.6961272867007</v>
       </c>
       <c r="L21" t="n">
-        <v>441.8154516660958</v>
+        <v>757.3752499800987</v>
       </c>
       <c r="M21" t="n">
-        <v>1042.599129226126</v>
+        <v>965.5299909923937</v>
       </c>
       <c r="N21" t="n">
         <v>1258.604511648063</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1093.868748832746</v>
+        <v>1105.839603730658</v>
       </c>
       <c r="C22" t="n">
-        <v>921.8961857116624</v>
+        <v>933.8670406095744</v>
       </c>
       <c r="D22" t="n">
-        <v>776.6869625448767</v>
+        <v>770.5502677363451</v>
       </c>
       <c r="E22" t="n">
-        <v>610.4787566977302</v>
+        <v>604.3420618891986</v>
       </c>
       <c r="F22" t="n">
-        <v>438.6169824722907</v>
+        <v>432.480287663759</v>
       </c>
       <c r="G22" t="n">
-        <v>273.1399265201906</v>
+        <v>267.0032317116589</v>
       </c>
       <c r="H22" t="n">
-        <v>136.2778003109547</v>
+        <v>130.141105502423</v>
       </c>
       <c r="I22" t="n">
-        <v>59.9633656615301</v>
+        <v>59.96336566153012</v>
       </c>
       <c r="J22" t="n">
-        <v>171.4973122125486</v>
+        <v>171.4973122125508</v>
       </c>
       <c r="K22" t="n">
-        <v>486.8335365657825</v>
+        <v>486.8335365657847</v>
       </c>
       <c r="L22" t="n">
-        <v>955.1673197500724</v>
+        <v>955.1673197500733</v>
       </c>
       <c r="M22" t="n">
-        <v>1466.175265653857</v>
+        <v>1466.175265653858</v>
       </c>
       <c r="N22" t="n">
-        <v>1960.639824529903</v>
+        <v>1960.639824529904</v>
       </c>
       <c r="O22" t="n">
-        <v>2424.11149567412</v>
+        <v>2424.111495674121</v>
       </c>
       <c r="P22" t="n">
-        <v>2807.160623273092</v>
+        <v>2807.160623273093</v>
       </c>
       <c r="Q22" t="n">
-        <v>2998.168283076505</v>
+        <v>2998.168283076506</v>
       </c>
       <c r="R22" t="n">
-        <v>2986.197428178594</v>
+        <v>2998.168283076506</v>
       </c>
       <c r="S22" t="n">
-        <v>2829.654150386647</v>
+        <v>2841.625005284559</v>
       </c>
       <c r="T22" t="n">
-        <v>2589.647161378219</v>
+        <v>2601.618016276131</v>
       </c>
       <c r="U22" t="n">
-        <v>2309.505253628723</v>
+        <v>2321.476108526635</v>
       </c>
       <c r="V22" t="n">
-        <v>2027.793786236752</v>
+        <v>2039.764641134664</v>
       </c>
       <c r="W22" t="n">
-        <v>1752.941382409265</v>
+        <v>1764.912237307177</v>
       </c>
       <c r="X22" t="n">
-        <v>1510.37748585507</v>
+        <v>1522.348340752982</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.034717544812</v>
+        <v>1296.005572442724</v>
       </c>
     </row>
     <row r="23">
@@ -5983,31 +5983,31 @@
         <v>376.3046810228209</v>
       </c>
       <c r="H23" t="n">
-        <v>96.24259927217763</v>
+        <v>96.24259927217766</v>
       </c>
       <c r="I23" t="n">
-        <v>127.7368786978869</v>
+        <v>127.736878697887</v>
       </c>
       <c r="J23" t="n">
-        <v>634.9723468919462</v>
+        <v>634.9723468919464</v>
       </c>
       <c r="K23" t="n">
-        <v>816.331282180761</v>
+        <v>1101.518897978716</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.319614562506</v>
+        <v>1332.507230360461</v>
       </c>
       <c r="M23" t="n">
-        <v>2238.321780555704</v>
+        <v>1594.672540406645</v>
       </c>
       <c r="N23" t="n">
-        <v>2505.47894326539</v>
+        <v>1861.829703116331</v>
       </c>
       <c r="O23" t="n">
-        <v>2994.093356138426</v>
+        <v>2994.093356138427</v>
       </c>
       <c r="P23" t="n">
-        <v>3947.422061514093</v>
+        <v>3947.422061514094</v>
       </c>
       <c r="Q23" t="n">
         <v>4587.52945477404</v>
@@ -6016,25 +6016,25 @@
         <v>4812.129963608882</v>
       </c>
       <c r="S23" t="n">
-        <v>4812.129963608882</v>
+        <v>4747.382929486187</v>
       </c>
       <c r="T23" t="n">
-        <v>4598.815481547348</v>
+        <v>4534.068447424654</v>
       </c>
       <c r="U23" t="n">
-        <v>4340.599666857983</v>
+        <v>4275.852632735288</v>
       </c>
       <c r="V23" t="n">
-        <v>3983.110251984232</v>
+        <v>4113.496514838585</v>
       </c>
       <c r="W23" t="n">
-        <v>3586.71890228458</v>
+        <v>3717.105165138932</v>
       </c>
       <c r="X23" t="n">
-        <v>3174.998903452327</v>
+        <v>3305.385166306679</v>
       </c>
       <c r="Y23" t="n">
-        <v>2769.661633407217</v>
+        <v>2900.04789626157</v>
       </c>
     </row>
     <row r="24">
@@ -6044,64 +6044,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>653.4512862121944</v>
+        <v>653.4512862121945</v>
       </c>
       <c r="C24" t="n">
-        <v>535.9453827296992</v>
+        <v>535.9453827296993</v>
       </c>
       <c r="D24" t="n">
-        <v>432.1054242449842</v>
+        <v>432.1054242449843</v>
       </c>
       <c r="E24" t="n">
         <v>327.4034905179215</v>
       </c>
       <c r="F24" t="n">
-        <v>233.7576602008256</v>
+        <v>233.7576602008257</v>
       </c>
       <c r="G24" t="n">
         <v>140.6341663331819</v>
       </c>
       <c r="H24" t="n">
-        <v>96.24259927217763</v>
+        <v>96.24259927217766</v>
       </c>
       <c r="I24" t="n">
-        <v>111.6238586105201</v>
+        <v>135.081164454932</v>
       </c>
       <c r="J24" t="n">
-        <v>177.3606893771021</v>
+        <v>492.9204876911051</v>
       </c>
       <c r="K24" t="n">
-        <v>302.4155625833453</v>
+        <v>617.9753608973483</v>
       </c>
       <c r="L24" t="n">
-        <v>478.0946852767432</v>
+        <v>793.6544835907463</v>
       </c>
       <c r="M24" t="n">
-        <v>1184.33386312168</v>
+        <v>1001.809224603041</v>
       </c>
       <c r="N24" t="n">
-        <v>1400.339245543616</v>
+        <v>1217.814607024978</v>
       </c>
       <c r="O24" t="n">
-        <v>1594.33125366308</v>
+        <v>1411.806615144442</v>
       </c>
       <c r="P24" t="n">
-        <v>1746.885319551961</v>
+        <v>1564.360681033323</v>
       </c>
       <c r="Q24" t="n">
-        <v>1840.751803151019</v>
+        <v>1735.296302866114</v>
       </c>
       <c r="R24" t="n">
         <v>1873.925046193905</v>
       </c>
       <c r="S24" t="n">
-        <v>1809.880303005053</v>
+        <v>1809.880303005054</v>
       </c>
       <c r="T24" t="n">
         <v>1671.75004012579</v>
       </c>
       <c r="U24" t="n">
-        <v>1487.043046539818</v>
+        <v>1487.043046539819</v>
       </c>
       <c r="V24" t="n">
         <v>1282.069907679085</v>
@@ -6110,10 +6110,10 @@
         <v>1085.548530512302</v>
       </c>
       <c r="X24" t="n">
-        <v>922.0711842789648</v>
+        <v>922.0711842789649</v>
       </c>
       <c r="Y24" t="n">
-        <v>782.3782956322572</v>
+        <v>782.3782956322573</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1130.147982443396</v>
+        <v>1148.255532149838</v>
       </c>
       <c r="C25" t="n">
-        <v>958.1754193223121</v>
+        <v>976.2829690287535</v>
       </c>
       <c r="D25" t="n">
-        <v>794.8586464490828</v>
+        <v>812.9661961555242</v>
       </c>
       <c r="E25" t="n">
-        <v>628.6504406019363</v>
+        <v>646.7579903083778</v>
       </c>
       <c r="F25" t="n">
         <v>474.8962160829382</v>
@@ -6144,7 +6144,7 @@
         <v>172.5570339216022</v>
       </c>
       <c r="I25" t="n">
-        <v>96.24259927217763</v>
+        <v>96.24259927217766</v>
       </c>
       <c r="J25" t="n">
         <v>207.7765458231983</v>
@@ -6174,25 +6174,25 @@
         <v>3022.476661789243</v>
       </c>
       <c r="S25" t="n">
-        <v>2865.933383997297</v>
+        <v>2884.040933703738</v>
       </c>
       <c r="T25" t="n">
-        <v>2625.926394988868</v>
+        <v>2644.033944695309</v>
       </c>
       <c r="U25" t="n">
-        <v>2345.784487239373</v>
+        <v>2363.892036945814</v>
       </c>
       <c r="V25" t="n">
-        <v>2064.073019847402</v>
+        <v>2082.180569553843</v>
       </c>
       <c r="W25" t="n">
-        <v>1789.220616019915</v>
+        <v>1807.328165726356</v>
       </c>
       <c r="X25" t="n">
-        <v>1546.65671946572</v>
+        <v>1564.764269172161</v>
       </c>
       <c r="Y25" t="n">
-        <v>1320.313951155462</v>
+        <v>1338.421500861903</v>
       </c>
     </row>
     <row r="26">
@@ -6220,49 +6220,49 @@
         <v>374.0553762121954</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99329446155205</v>
+        <v>93.99329446155207</v>
       </c>
       <c r="I26" t="n">
         <v>125.4875738872614</v>
       </c>
       <c r="J26" t="n">
-        <v>240.9938233736946</v>
+        <v>632.7230420813207</v>
       </c>
       <c r="K26" t="n">
-        <v>545.4397149424949</v>
+        <v>989.0536574474368</v>
       </c>
       <c r="L26" t="n">
-        <v>1708.606733904202</v>
+        <v>1220.041989829182</v>
       </c>
       <c r="M26" t="n">
-        <v>2871.773752865908</v>
+        <v>1482.207299875366</v>
       </c>
       <c r="N26" t="n">
-        <v>3138.930915575594</v>
+        <v>1749.364462585052</v>
       </c>
       <c r="O26" t="n">
-        <v>4271.19456859769</v>
+        <v>2881.628115607148</v>
       </c>
       <c r="P26" t="n">
-        <v>4479.044386623301</v>
+        <v>3834.956820982815</v>
       </c>
       <c r="Q26" t="n">
-        <v>4627.302872520512</v>
+        <v>4475.064214242761</v>
       </c>
       <c r="R26" t="n">
         <v>4699.664723077603</v>
       </c>
       <c r="S26" t="n">
-        <v>4634.917688954907</v>
+        <v>4634.917688954908</v>
       </c>
       <c r="T26" t="n">
-        <v>4468.73662490171</v>
+        <v>4421.603206893375</v>
       </c>
       <c r="U26" t="n">
-        <v>4468.73662490171</v>
+        <v>4163.387392204009</v>
       </c>
       <c r="V26" t="n">
-        <v>4111.247210027959</v>
+        <v>3805.897977330259</v>
       </c>
       <c r="W26" t="n">
         <v>3714.855860328306</v>
@@ -6299,31 +6299,31 @@
         <v>138.3848615225563</v>
       </c>
       <c r="H27" t="n">
-        <v>93.99329446155205</v>
+        <v>93.99329446155207</v>
       </c>
       <c r="I27" t="n">
-        <v>109.3745537998946</v>
+        <v>132.8318596443064</v>
       </c>
       <c r="J27" t="n">
-        <v>175.1113845664766</v>
+        <v>490.6711828804795</v>
       </c>
       <c r="K27" t="n">
-        <v>300.1662577727197</v>
+        <v>615.7260560867227</v>
       </c>
       <c r="L27" t="n">
-        <v>475.8453804661177</v>
+        <v>791.4051787801207</v>
       </c>
       <c r="M27" t="n">
-        <v>684.0001214784127</v>
+        <v>999.5599197924156</v>
       </c>
       <c r="N27" t="n">
-        <v>1292.634440448085</v>
+        <v>1215.565302214352</v>
       </c>
       <c r="O27" t="n">
-        <v>1486.626448567549</v>
+        <v>1409.557310333816</v>
       </c>
       <c r="P27" t="n">
-        <v>1639.18051445643</v>
+        <v>1562.111376222697</v>
       </c>
       <c r="Q27" t="n">
         <v>1733.046998055488</v>
@@ -6381,7 +6381,7 @@
         <v>152.2001794045354</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99329446155205</v>
+        <v>93.99329446155207</v>
       </c>
       <c r="J28" t="n">
         <v>205.5272410125727</v>
@@ -6457,55 +6457,55 @@
         <v>374.0553762121954</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99329446155205</v>
+        <v>93.99329446155207</v>
       </c>
       <c r="I29" t="n">
         <v>125.4875738872614</v>
       </c>
       <c r="J29" t="n">
-        <v>240.9938233736946</v>
+        <v>632.7230420813207</v>
       </c>
       <c r="K29" t="n">
-        <v>422.3527586625094</v>
+        <v>1564.997240132496</v>
       </c>
       <c r="L29" t="n">
-        <v>653.3410910442542</v>
+        <v>2102.203689742457</v>
       </c>
       <c r="M29" t="n">
-        <v>915.5064010904389</v>
+        <v>2364.368999788642</v>
       </c>
       <c r="N29" t="n">
-        <v>2078.673420052146</v>
+        <v>2631.526162498328</v>
       </c>
       <c r="O29" t="n">
-        <v>3210.937073074241</v>
+        <v>2881.628115607148</v>
       </c>
       <c r="P29" t="n">
-        <v>3987.195479260566</v>
+        <v>3834.956820982815</v>
       </c>
       <c r="Q29" t="n">
-        <v>4627.302872520512</v>
+        <v>4475.064214242761</v>
       </c>
       <c r="R29" t="n">
         <v>4699.664723077603</v>
       </c>
       <c r="S29" t="n">
-        <v>4634.917688954907</v>
+        <v>4634.917688954908</v>
       </c>
       <c r="T29" t="n">
-        <v>4421.603206893374</v>
+        <v>4421.603206893375</v>
       </c>
       <c r="U29" t="n">
-        <v>4163.387392204007</v>
+        <v>4163.387392204009</v>
       </c>
       <c r="V29" t="n">
-        <v>3805.897977330257</v>
+        <v>3805.897977330259</v>
       </c>
       <c r="W29" t="n">
-        <v>3409.506627630604</v>
+        <v>3409.506627630606</v>
       </c>
       <c r="X29" t="n">
-        <v>2997.786628798352</v>
+        <v>3303.135861496053</v>
       </c>
       <c r="Y29" t="n">
         <v>2897.798591450944</v>
@@ -6536,34 +6536,34 @@
         <v>138.3848615225563</v>
       </c>
       <c r="H30" t="n">
-        <v>93.99329446155205</v>
+        <v>93.99329446155207</v>
       </c>
       <c r="I30" t="n">
-        <v>109.3745537998946</v>
+        <v>132.8318596443064</v>
       </c>
       <c r="J30" t="n">
-        <v>175.1113845664766</v>
+        <v>490.6711828804795</v>
       </c>
       <c r="K30" t="n">
-        <v>300.1662577727197</v>
+        <v>615.7260560867227</v>
       </c>
       <c r="L30" t="n">
-        <v>487.2647725298913</v>
+        <v>791.4051787801207</v>
       </c>
       <c r="M30" t="n">
-        <v>695.4195135421862</v>
+        <v>999.5599197924156</v>
       </c>
       <c r="N30" t="n">
-        <v>911.4248959641227</v>
+        <v>1215.565302214352</v>
       </c>
       <c r="O30" t="n">
-        <v>1105.416904083587</v>
+        <v>1409.557310333816</v>
       </c>
       <c r="P30" t="n">
-        <v>1257.970969972468</v>
+        <v>1562.111376222697</v>
       </c>
       <c r="Q30" t="n">
-        <v>1838.502498340394</v>
+        <v>1733.046998055488</v>
       </c>
       <c r="R30" t="n">
         <v>1871.67574138328</v>
@@ -6600,13 +6600,13 @@
         <v>1146.006227339212</v>
       </c>
       <c r="C31" t="n">
-        <v>974.0336642181279</v>
+        <v>974.033664218128</v>
       </c>
       <c r="D31" t="n">
-        <v>810.7168913448986</v>
+        <v>810.7168913448987</v>
       </c>
       <c r="E31" t="n">
-        <v>644.5086854977521</v>
+        <v>644.5086854977523</v>
       </c>
       <c r="F31" t="n">
         <v>472.6469112723126</v>
@@ -6618,7 +6618,7 @@
         <v>170.3077291109766</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99329446155205</v>
+        <v>93.99329446155207</v>
       </c>
       <c r="J31" t="n">
         <v>205.5272410125727</v>
@@ -6645,25 +6645,25 @@
         <v>3032.198211876529</v>
       </c>
       <c r="R31" t="n">
-        <v>3020.227356978618</v>
+        <v>3032.198211876529</v>
       </c>
       <c r="S31" t="n">
-        <v>2863.684079186672</v>
+        <v>2881.791628893113</v>
       </c>
       <c r="T31" t="n">
-        <v>2623.677090178243</v>
+        <v>2641.784639884684</v>
       </c>
       <c r="U31" t="n">
         <v>2361.642732135188</v>
       </c>
       <c r="V31" t="n">
-        <v>2079.931264743217</v>
+        <v>2079.931264743218</v>
       </c>
       <c r="W31" t="n">
-        <v>1805.07886091573</v>
+        <v>1805.078860915731</v>
       </c>
       <c r="X31" t="n">
-        <v>1562.514964361535</v>
+        <v>1562.514964361536</v>
       </c>
       <c r="Y31" t="n">
         <v>1336.172196051278</v>
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2172.600994461712</v>
+        <v>2197.88814540877</v>
       </c>
       <c r="C32" t="n">
-        <v>1745.700264475012</v>
+        <v>1770.987415422071</v>
       </c>
       <c r="D32" t="n">
-        <v>1322.407643660012</v>
+        <v>1347.694794607071</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.779936505572</v>
+        <v>921.7178547549286</v>
       </c>
       <c r="F32" t="n">
-        <v>776.6557546949721</v>
+        <v>496.5936729443288</v>
       </c>
       <c r="G32" t="n">
-        <v>374.0553762121954</v>
+        <v>93.99329446155207</v>
       </c>
       <c r="H32" t="n">
-        <v>93.99329446155205</v>
+        <v>93.99329446155207</v>
       </c>
       <c r="I32" t="n">
         <v>125.4875738872614</v>
@@ -6706,46 +6706,46 @@
         <v>1564.997240132496</v>
       </c>
       <c r="L32" t="n">
-        <v>2728.164259094202</v>
+        <v>1795.985572514241</v>
       </c>
       <c r="M32" t="n">
-        <v>3753.935452779184</v>
+        <v>2959.152591475948</v>
       </c>
       <c r="N32" t="n">
-        <v>4021.09261548887</v>
+        <v>3377.005049848384</v>
       </c>
       <c r="O32" t="n">
-        <v>4271.19456859769</v>
+        <v>3627.107002957204</v>
       </c>
       <c r="P32" t="n">
-        <v>4479.044386623301</v>
+        <v>3834.956820982815</v>
       </c>
       <c r="Q32" t="n">
-        <v>4627.302872520512</v>
+        <v>4475.064214242761</v>
       </c>
       <c r="R32" t="n">
         <v>4699.664723077603</v>
       </c>
       <c r="S32" t="n">
-        <v>4634.917688954907</v>
+        <v>4660.204839901965</v>
       </c>
       <c r="T32" t="n">
-        <v>4421.603206893374</v>
+        <v>4446.890357840432</v>
       </c>
       <c r="U32" t="n">
-        <v>4163.387392204007</v>
+        <v>4188.674543151066</v>
       </c>
       <c r="V32" t="n">
-        <v>3805.897977330257</v>
+        <v>3831.185128277316</v>
       </c>
       <c r="W32" t="n">
-        <v>3409.506627630604</v>
+        <v>3434.793778577663</v>
       </c>
       <c r="X32" t="n">
-        <v>2997.786628798352</v>
+        <v>3023.07377974541</v>
       </c>
       <c r="Y32" t="n">
-        <v>2592.449358753242</v>
+        <v>2617.7365097003</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>138.3848615225563</v>
       </c>
       <c r="H33" t="n">
-        <v>93.99329446155205</v>
+        <v>93.99329446155207</v>
       </c>
       <c r="I33" t="n">
-        <v>109.3745537998946</v>
+        <v>132.8318596443064</v>
       </c>
       <c r="J33" t="n">
-        <v>175.1113845664766</v>
+        <v>490.6711828804795</v>
       </c>
       <c r="K33" t="n">
-        <v>300.1662577727197</v>
+        <v>615.7260560867227</v>
       </c>
       <c r="L33" t="n">
-        <v>475.8453804661177</v>
+        <v>791.4051787801207</v>
       </c>
       <c r="M33" t="n">
-        <v>684.0001214784127</v>
+        <v>999.5599197924156</v>
       </c>
       <c r="N33" t="n">
-        <v>900.0055039003491</v>
+        <v>1215.565302214352</v>
       </c>
       <c r="O33" t="n">
-        <v>1093.997512019813</v>
+        <v>1409.557310333816</v>
       </c>
       <c r="P33" t="n">
-        <v>1246.551577908694</v>
+        <v>1562.111376222697</v>
       </c>
       <c r="Q33" t="n">
         <v>1733.046998055488</v>
@@ -6837,13 +6837,13 @@
         <v>1146.006227339212</v>
       </c>
       <c r="C34" t="n">
-        <v>974.0336642181279</v>
+        <v>974.033664218128</v>
       </c>
       <c r="D34" t="n">
-        <v>810.7168913448986</v>
+        <v>810.7168913448987</v>
       </c>
       <c r="E34" t="n">
-        <v>644.5086854977521</v>
+        <v>644.5086854977523</v>
       </c>
       <c r="F34" t="n">
         <v>472.6469112723126</v>
@@ -6855,7 +6855,7 @@
         <v>170.3077291109766</v>
       </c>
       <c r="I34" t="n">
-        <v>93.99329446155205</v>
+        <v>93.99329446155207</v>
       </c>
       <c r="J34" t="n">
         <v>205.5272410125727</v>
@@ -6888,19 +6888,19 @@
         <v>2863.684079186672</v>
       </c>
       <c r="T34" t="n">
-        <v>2641.784639884684</v>
+        <v>2623.677090178243</v>
       </c>
       <c r="U34" t="n">
-        <v>2361.642732135188</v>
+        <v>2343.535182428747</v>
       </c>
       <c r="V34" t="n">
-        <v>2079.931264743217</v>
+        <v>2061.823715036776</v>
       </c>
       <c r="W34" t="n">
-        <v>1805.07886091573</v>
+        <v>1805.078860915731</v>
       </c>
       <c r="X34" t="n">
-        <v>1562.514964361535</v>
+        <v>1562.514964361536</v>
       </c>
       <c r="Y34" t="n">
         <v>1336.172196051278</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1545.560083141164</v>
+        <v>1167.75000770555</v>
       </c>
       <c r="C35" t="n">
-        <v>1118.659353154464</v>
+        <v>1167.75000770555</v>
       </c>
       <c r="D35" t="n">
-        <v>1118.659353154464</v>
+        <v>1167.75000770555</v>
       </c>
       <c r="E35" t="n">
-        <v>692.6824133023221</v>
+        <v>1167.75000770555</v>
       </c>
       <c r="F35" t="n">
-        <v>692.6824133023221</v>
+        <v>742.6258258949501</v>
       </c>
       <c r="G35" t="n">
         <v>340.0254474121734</v>
@@ -6937,19 +6937,19 @@
         <v>91.45764508723943</v>
       </c>
       <c r="J35" t="n">
-        <v>598.6931132812988</v>
+        <v>206.9638945736726</v>
       </c>
       <c r="K35" t="n">
-        <v>780.0520485701136</v>
+        <v>949.0105446351079</v>
       </c>
       <c r="L35" t="n">
-        <v>1011.040380951858</v>
+        <v>1638.035044454153</v>
       </c>
       <c r="M35" t="n">
-        <v>1273.205690998043</v>
+        <v>1900.200354500338</v>
       </c>
       <c r="N35" t="n">
-        <v>2015.252341059478</v>
+        <v>2167.357517210023</v>
       </c>
       <c r="O35" t="n">
         <v>2417.459470318843</v>
@@ -6964,25 +6964,25 @@
         <v>2998.168283076506</v>
       </c>
       <c r="S35" t="n">
-        <v>2933.421248953811</v>
+        <v>2966.513617464269</v>
       </c>
       <c r="T35" t="n">
-        <v>2720.106766892277</v>
+        <v>2753.199135402736</v>
       </c>
       <c r="U35" t="n">
-        <v>2720.106766892277</v>
+        <v>2753.199135402736</v>
       </c>
       <c r="V35" t="n">
-        <v>2362.617352018527</v>
+        <v>2395.709720528986</v>
       </c>
       <c r="W35" t="n">
-        <v>2362.617352018527</v>
+        <v>1999.318370829333</v>
       </c>
       <c r="X35" t="n">
-        <v>1950.897353186274</v>
+        <v>1587.59837199708</v>
       </c>
       <c r="Y35" t="n">
-        <v>1545.560083141164</v>
+        <v>1587.59837199708</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>59.96336566153013</v>
       </c>
       <c r="I36" t="n">
-        <v>75.34462499987265</v>
+        <v>98.80193084428448</v>
       </c>
       <c r="J36" t="n">
-        <v>433.1839482360457</v>
+        <v>456.6412540804575</v>
       </c>
       <c r="K36" t="n">
-        <v>558.2388214422889</v>
+        <v>581.6961272867007</v>
       </c>
       <c r="L36" t="n">
-        <v>733.9179441356869</v>
+        <v>757.3752499800987</v>
       </c>
       <c r="M36" t="n">
-        <v>942.0726851479818</v>
+        <v>965.5299909923937</v>
       </c>
       <c r="N36" t="n">
-        <v>1158.078067569918</v>
+        <v>1181.53537341433</v>
       </c>
       <c r="O36" t="n">
-        <v>1452.596519767527</v>
+        <v>1375.527381533794</v>
       </c>
       <c r="P36" t="n">
-        <v>1605.150585656408</v>
+        <v>1528.081447422675</v>
       </c>
       <c r="Q36" t="n">
         <v>1699.017069255466</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1093.868748832748</v>
+        <v>1111.97629853919</v>
       </c>
       <c r="C37" t="n">
-        <v>921.8961857116637</v>
+        <v>940.0037354181061</v>
       </c>
       <c r="D37" t="n">
-        <v>758.5794128384345</v>
+        <v>776.6869625448768</v>
       </c>
       <c r="E37" t="n">
-        <v>592.371206991288</v>
+        <v>610.4787566977303</v>
       </c>
       <c r="F37" t="n">
-        <v>420.5094327658484</v>
+        <v>438.6169824722907</v>
       </c>
       <c r="G37" t="n">
-        <v>255.0323768137483</v>
+        <v>273.1399265201906</v>
       </c>
       <c r="H37" t="n">
-        <v>118.1702506045123</v>
+        <v>136.2778003109547</v>
       </c>
       <c r="I37" t="n">
         <v>59.96336566153013</v>
@@ -7098,16 +7098,16 @@
         <v>171.4973122125508</v>
       </c>
       <c r="K37" t="n">
-        <v>486.8335365657838</v>
+        <v>486.8335365657847</v>
       </c>
       <c r="L37" t="n">
-        <v>955.1673197500737</v>
+        <v>955.1673197500743</v>
       </c>
       <c r="M37" t="n">
-        <v>1466.175265653858</v>
+        <v>1466.175265653859</v>
       </c>
       <c r="N37" t="n">
-        <v>1960.639824529904</v>
+        <v>1960.639824529905</v>
       </c>
       <c r="O37" t="n">
         <v>2424.111495674122</v>
@@ -7140,7 +7140,7 @@
         <v>1510.377485855071</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.034717544813</v>
+        <v>1302.142267251256</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1942.768987726997</v>
+        <v>535.8515885833111</v>
       </c>
       <c r="C38" t="n">
-        <v>1736.957486622049</v>
+        <v>535.8515885833111</v>
       </c>
       <c r="D38" t="n">
-        <v>1313.664865807049</v>
+        <v>535.8515885833111</v>
       </c>
       <c r="E38" t="n">
-        <v>887.6879259549066</v>
+        <v>535.8515885833111</v>
       </c>
       <c r="F38" t="n">
-        <v>462.5637441443068</v>
+        <v>340.0254474121734</v>
       </c>
       <c r="G38" t="n">
-        <v>59.96336566153013</v>
+        <v>340.0254474121734</v>
       </c>
       <c r="H38" t="n">
         <v>59.96336566153013</v>
@@ -7192,34 +7192,34 @@
         <v>1790.464806816548</v>
       </c>
       <c r="P38" t="n">
-        <v>2532.511456877984</v>
+        <v>2133.460380981718</v>
       </c>
       <c r="Q38" t="n">
         <v>2773.567774241665</v>
       </c>
       <c r="R38" t="n">
-        <v>2998.168283076506</v>
+        <v>2998.168283076507</v>
       </c>
       <c r="S38" t="n">
-        <v>2933.421248953811</v>
+        <v>2998.168283076507</v>
       </c>
       <c r="T38" t="n">
-        <v>2720.106766892277</v>
+        <v>2784.853801014973</v>
       </c>
       <c r="U38" t="n">
-        <v>2720.106766892277</v>
+        <v>2526.637986325607</v>
       </c>
       <c r="V38" t="n">
-        <v>2362.617352018527</v>
+        <v>2169.148571451857</v>
       </c>
       <c r="W38" t="n">
-        <v>2362.617352018527</v>
+        <v>1772.757221752204</v>
       </c>
       <c r="X38" t="n">
-        <v>2362.617352018527</v>
+        <v>1361.037222919951</v>
       </c>
       <c r="Y38" t="n">
-        <v>2362.617352018527</v>
+        <v>955.6999528748412</v>
       </c>
     </row>
     <row r="39">
@@ -7235,10 +7235,10 @@
         <v>499.6661491190517</v>
       </c>
       <c r="D39" t="n">
-        <v>395.8261906343367</v>
+        <v>395.8261906343368</v>
       </c>
       <c r="E39" t="n">
-        <v>291.1242569072739</v>
+        <v>291.124256907274</v>
       </c>
       <c r="F39" t="n">
         <v>197.4784265901781</v>
@@ -7253,28 +7253,28 @@
         <v>75.34462499987265</v>
       </c>
       <c r="J39" t="n">
-        <v>433.1839482360457</v>
+        <v>141.0814557664547</v>
       </c>
       <c r="K39" t="n">
-        <v>558.2388214422889</v>
+        <v>266.1363289726978</v>
       </c>
       <c r="L39" t="n">
-        <v>733.9179441356869</v>
+        <v>441.8154516660958</v>
       </c>
       <c r="M39" t="n">
-        <v>942.0726851479818</v>
+        <v>649.9701926783907</v>
       </c>
       <c r="N39" t="n">
-        <v>1158.078067569918</v>
+        <v>865.9755751003272</v>
       </c>
       <c r="O39" t="n">
-        <v>1352.070075689383</v>
+        <v>1059.967583219791</v>
       </c>
       <c r="P39" t="n">
-        <v>1605.150585656408</v>
+        <v>1212.521649108672</v>
       </c>
       <c r="Q39" t="n">
-        <v>1699.017069255466</v>
+        <v>1793.053177476598</v>
       </c>
       <c r="R39" t="n">
         <v>1837.645812583258</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1111.97629853919</v>
+        <v>1093.868748832748</v>
       </c>
       <c r="C40" t="n">
-        <v>940.0037354181061</v>
+        <v>921.8961857116642</v>
       </c>
       <c r="D40" t="n">
-        <v>776.6869625448768</v>
+        <v>758.5794128384349</v>
       </c>
       <c r="E40" t="n">
-        <v>610.4787566977303</v>
+        <v>592.3712069912884</v>
       </c>
       <c r="F40" t="n">
-        <v>438.6169824722907</v>
+        <v>420.5094327658488</v>
       </c>
       <c r="G40" t="n">
         <v>273.1399265201906</v>
@@ -7338,7 +7338,7 @@
         <v>486.8335365657847</v>
       </c>
       <c r="L40" t="n">
-        <v>955.1673197500746</v>
+        <v>955.1673197500745</v>
       </c>
       <c r="M40" t="n">
         <v>1466.175265653859</v>
@@ -7347,37 +7347,37 @@
         <v>1960.639824529905</v>
       </c>
       <c r="O40" t="n">
-        <v>2424.111495674122</v>
+        <v>2424.111495674123</v>
       </c>
       <c r="P40" t="n">
         <v>2807.160623273094</v>
       </c>
       <c r="Q40" t="n">
-        <v>2998.168283076506</v>
+        <v>2998.168283076507</v>
       </c>
       <c r="R40" t="n">
-        <v>2986.197428178595</v>
+        <v>2986.197428178596</v>
       </c>
       <c r="S40" t="n">
         <v>2829.654150386649</v>
       </c>
       <c r="T40" t="n">
-        <v>2607.754711084662</v>
+        <v>2589.647161378221</v>
       </c>
       <c r="U40" t="n">
-        <v>2327.612803335167</v>
+        <v>2309.505253628725</v>
       </c>
       <c r="V40" t="n">
-        <v>2045.901335943196</v>
+        <v>2027.793786236754</v>
       </c>
       <c r="W40" t="n">
-        <v>1771.048932115709</v>
+        <v>1752.941382409267</v>
       </c>
       <c r="X40" t="n">
-        <v>1528.485035561514</v>
+        <v>1510.377485855072</v>
       </c>
       <c r="Y40" t="n">
-        <v>1302.142267251256</v>
+        <v>1284.034717544814</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1813.961680532376</v>
+        <v>864.8565519455667</v>
       </c>
       <c r="C41" t="n">
-        <v>1570.04281550681</v>
+        <v>864.8565519455667</v>
       </c>
       <c r="D41" t="n">
-        <v>1570.04281550681</v>
+        <v>864.8565519455667</v>
       </c>
       <c r="E41" t="n">
-        <v>1144.065875654667</v>
+        <v>438.8796120934242</v>
       </c>
       <c r="F41" t="n">
-        <v>718.9416938440675</v>
+        <v>438.8796120934242</v>
       </c>
       <c r="G41" t="n">
-        <v>316.3413153612908</v>
+        <v>36.27923361064751</v>
       </c>
       <c r="H41" t="n">
         <v>36.27923361064751</v>
@@ -7423,7 +7423,7 @@
         <v>857.7923402395343</v>
       </c>
       <c r="N41" t="n">
-        <v>1135.389572943643</v>
+        <v>1124.94950294922</v>
       </c>
       <c r="O41" t="n">
         <v>1385.491526052463</v>
@@ -7441,22 +7441,22 @@
         <v>1813.961680532376</v>
       </c>
       <c r="T41" t="n">
-        <v>1813.961680532376</v>
+        <v>1600.647198470842</v>
       </c>
       <c r="U41" t="n">
-        <v>1813.961680532376</v>
+        <v>1342.431383781476</v>
       </c>
       <c r="V41" t="n">
-        <v>1813.961680532376</v>
+        <v>1276.576550777819</v>
       </c>
       <c r="W41" t="n">
-        <v>1813.961680532376</v>
+        <v>1276.576550777819</v>
       </c>
       <c r="X41" t="n">
-        <v>1813.961680532376</v>
+        <v>864.8565519455667</v>
       </c>
       <c r="Y41" t="n">
-        <v>1813.961680532376</v>
+        <v>864.8565519455667</v>
       </c>
     </row>
     <row r="42">
@@ -7472,16 +7472,16 @@
         <v>475.9820170681692</v>
       </c>
       <c r="D42" t="n">
-        <v>372.1420585834543</v>
+        <v>372.1420585834541</v>
       </c>
       <c r="E42" t="n">
-        <v>267.4401248563915</v>
+        <v>267.4401248563913</v>
       </c>
       <c r="F42" t="n">
-        <v>173.7942945392955</v>
+        <v>173.7942945392954</v>
       </c>
       <c r="G42" t="n">
-        <v>80.67080067165178</v>
+        <v>80.67080067165148</v>
       </c>
       <c r="H42" t="n">
         <v>36.27923361064751</v>
@@ -7490,28 +7490,28 @@
         <v>75.11779879340187</v>
       </c>
       <c r="J42" t="n">
-        <v>140.8546295599839</v>
+        <v>154.9372279306031</v>
       </c>
       <c r="K42" t="n">
-        <v>589.8101454917469</v>
+        <v>279.9921011368463</v>
       </c>
       <c r="L42" t="n">
-        <v>765.4892681851449</v>
+        <v>455.6712238302442</v>
       </c>
       <c r="M42" t="n">
-        <v>1124.37049746015</v>
+        <v>663.8259648425392</v>
       </c>
       <c r="N42" t="n">
-        <v>1340.375879882087</v>
+        <v>879.8313472644757</v>
       </c>
       <c r="O42" t="n">
-        <v>1534.367888001551</v>
+        <v>1073.82335538394</v>
       </c>
       <c r="P42" t="n">
-        <v>1686.921953890432</v>
+        <v>1226.377421272821</v>
       </c>
       <c r="Q42" t="n">
-        <v>1780.78843748949</v>
+        <v>1675.332937204584</v>
       </c>
       <c r="R42" t="n">
         <v>1813.961680532376</v>
@@ -7523,7 +7523,7 @@
         <v>1611.78667446426</v>
       </c>
       <c r="U42" t="n">
-        <v>1427.079680878289</v>
+        <v>1427.079680878288</v>
       </c>
       <c r="V42" t="n">
         <v>1222.106542017555</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.1132674058423</v>
+        <v>865.3331918542165</v>
       </c>
       <c r="C43" t="n">
-        <v>616.1407042847583</v>
+        <v>693.3606287331324</v>
       </c>
       <c r="D43" t="n">
-        <v>616.1407042847583</v>
+        <v>530.0438558599031</v>
       </c>
       <c r="E43" t="n">
-        <v>449.9324984376118</v>
+        <v>363.8356500127567</v>
       </c>
       <c r="F43" t="n">
-        <v>278.0707242121722</v>
+        <v>249.455794469308</v>
       </c>
       <c r="G43" t="n">
-        <v>112.5936682600721</v>
+        <v>249.455794469308</v>
       </c>
       <c r="H43" t="n">
         <v>112.5936682600721</v>
@@ -7569,25 +7569,25 @@
         <v>36.27923361064751</v>
       </c>
       <c r="J43" t="n">
-        <v>69.89146351344729</v>
+        <v>147.8131801616682</v>
       </c>
       <c r="K43" t="n">
-        <v>137.9450787526591</v>
+        <v>463.1494045149021</v>
       </c>
       <c r="L43" t="n">
-        <v>395.8948932034018</v>
+        <v>555.0942941080269</v>
       </c>
       <c r="M43" t="n">
-        <v>493.3673586443646</v>
+        <v>652.5667595489898</v>
       </c>
       <c r="N43" t="n">
-        <v>942.3228745761276</v>
+        <v>1101.522275480753</v>
       </c>
       <c r="O43" t="n">
-        <v>1391.27839050789</v>
+        <v>1239.904893129991</v>
       </c>
       <c r="P43" t="n">
-        <v>1774.327518106862</v>
+        <v>1622.954020728963</v>
       </c>
       <c r="Q43" t="n">
         <v>1813.961680532376</v>
@@ -7596,25 +7596,25 @@
         <v>1801.990825634464</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.447547842518</v>
+        <v>1801.990825634464</v>
       </c>
       <c r="T43" t="n">
-        <v>1405.44055883409</v>
+        <v>1561.983836626036</v>
       </c>
       <c r="U43" t="n">
-        <v>1405.44055883409</v>
+        <v>1281.84192887654</v>
       </c>
       <c r="V43" t="n">
-        <v>1405.44055883409</v>
+        <v>1281.84192887654</v>
       </c>
       <c r="W43" t="n">
-        <v>1204.622004428166</v>
+        <v>1281.84192887654</v>
       </c>
       <c r="X43" t="n">
-        <v>1204.622004428166</v>
+        <v>1281.84192887654</v>
       </c>
       <c r="Y43" t="n">
-        <v>978.2792361179079</v>
+        <v>1055.499160566282</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1178.410749474396</v>
+        <v>1145.842423830767</v>
       </c>
       <c r="C44" t="n">
-        <v>751.5100194876964</v>
+        <v>718.9416938440675</v>
       </c>
       <c r="D44" t="n">
-        <v>741.4654971718905</v>
+        <v>718.9416938440675</v>
       </c>
       <c r="E44" t="n">
-        <v>741.4654971718905</v>
+        <v>718.9416938440675</v>
       </c>
       <c r="F44" t="n">
-        <v>316.3413153612908</v>
+        <v>718.9416938440675</v>
       </c>
       <c r="G44" t="n">
         <v>316.3413153612908</v>
@@ -7666,7 +7666,7 @@
         <v>1375.05145605804</v>
       </c>
       <c r="P44" t="n">
-        <v>1593.341344078074</v>
+        <v>1582.90127408365</v>
       </c>
       <c r="Q44" t="n">
         <v>1741.599829975285</v>
@@ -7675,25 +7675,25 @@
         <v>1813.961680532376</v>
       </c>
       <c r="S44" t="n">
-        <v>1749.21464640968</v>
+        <v>1813.961680532376</v>
       </c>
       <c r="T44" t="n">
-        <v>1535.900164348147</v>
+        <v>1600.647198470842</v>
       </c>
       <c r="U44" t="n">
-        <v>1535.900164348147</v>
+        <v>1542.23377353042</v>
       </c>
       <c r="V44" t="n">
-        <v>1178.410749474396</v>
+        <v>1542.23377353042</v>
       </c>
       <c r="W44" t="n">
-        <v>1178.410749474396</v>
+        <v>1145.842423830767</v>
       </c>
       <c r="X44" t="n">
-        <v>1178.410749474396</v>
+        <v>1145.842423830767</v>
       </c>
       <c r="Y44" t="n">
-        <v>1178.410749474396</v>
+        <v>1145.842423830767</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>75.11779879340187</v>
       </c>
       <c r="J45" t="n">
-        <v>213.6248102204263</v>
+        <v>432.957122029575</v>
       </c>
       <c r="K45" t="n">
-        <v>338.6796834266695</v>
+        <v>558.0119952358182</v>
       </c>
       <c r="L45" t="n">
-        <v>514.3588061200675</v>
+        <v>733.6911179292161</v>
       </c>
       <c r="M45" t="n">
-        <v>722.5135471323624</v>
+        <v>941.8458589415111</v>
       </c>
       <c r="N45" t="n">
-        <v>938.5189295542989</v>
+        <v>1157.851241363448</v>
       </c>
       <c r="O45" t="n">
-        <v>1132.510937673763</v>
+        <v>1351.843249482912</v>
       </c>
       <c r="P45" t="n">
         <v>1581.466453605526</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>758.3387801554823</v>
+        <v>546.3217768043176</v>
       </c>
       <c r="C46" t="n">
-        <v>758.3387801554823</v>
+        <v>374.3492136832335</v>
       </c>
       <c r="D46" t="n">
-        <v>753.0028304939941</v>
+        <v>374.3492136832335</v>
       </c>
       <c r="E46" t="n">
-        <v>586.7946246468476</v>
+        <v>208.1410078360871</v>
       </c>
       <c r="F46" t="n">
-        <v>414.9328504214081</v>
+        <v>36.27923361064751</v>
       </c>
       <c r="G46" t="n">
-        <v>249.455794469308</v>
+        <v>36.27923361064751</v>
       </c>
       <c r="H46" t="n">
-        <v>112.5936682600721</v>
+        <v>36.27923361064751</v>
       </c>
       <c r="I46" t="n">
         <v>36.27923361064751</v>
@@ -7815,13 +7815,13 @@
         <v>586.900594684422</v>
       </c>
       <c r="M46" t="n">
-        <v>1035.856110616185</v>
+        <v>845.8912385419617</v>
       </c>
       <c r="N46" t="n">
-        <v>1484.811626547948</v>
+        <v>942.3228745761276</v>
       </c>
       <c r="O46" t="n">
-        <v>1704.034595081198</v>
+        <v>1391.27839050789</v>
       </c>
       <c r="P46" t="n">
         <v>1774.327518106862</v>
@@ -7833,25 +7833,25 @@
         <v>1813.961680532376</v>
       </c>
       <c r="S46" t="n">
-        <v>1657.418402740429</v>
+        <v>1813.961680532376</v>
       </c>
       <c r="T46" t="n">
-        <v>1417.411413732001</v>
+        <v>1813.961680532376</v>
       </c>
       <c r="U46" t="n">
-        <v>1417.411413732001</v>
+        <v>1535.615513290036</v>
       </c>
       <c r="V46" t="n">
-        <v>1417.411413732001</v>
+        <v>1253.904045898065</v>
       </c>
       <c r="W46" t="n">
-        <v>1417.411413732001</v>
+        <v>979.0516420705782</v>
       </c>
       <c r="X46" t="n">
-        <v>1174.847517177806</v>
+        <v>736.4877455163833</v>
       </c>
       <c r="Y46" t="n">
-        <v>948.504748867548</v>
+        <v>736.4877455163833</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.53626961840621</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>63.88091092762902</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7990,16 +7990,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>64.25992043664672</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>64.37125695822481</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>65.69167194305098</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>64.24098473741773</v>
       </c>
       <c r="R2" t="n">
         <v>63.14896002761616</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>48.72742446615302</v>
       </c>
       <c r="K3" t="n">
-        <v>49.37953143553405</v>
+        <v>50.51554396615302</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -8072,13 +8072,13 @@
         <v>49.45933834636135</v>
       </c>
       <c r="O3" t="n">
-        <v>51.28819985504191</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>49.88715133764835</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>42.20547431349048</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8139,25 +8139,25 @@
         <v>48.75306611672156</v>
       </c>
       <c r="K4" t="n">
-        <v>47.9449520549127</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L4" t="n">
         <v>21.91875989570122</v>
       </c>
       <c r="M4" t="n">
-        <v>50.69175002430551</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N4" t="n">
-        <v>20.74890097560039</v>
+        <v>47.7291985778011</v>
       </c>
       <c r="O4" t="n">
-        <v>22.49918749842445</v>
+        <v>50.61549763124414</v>
       </c>
       <c r="P4" t="n">
-        <v>50.49711079080617</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>52.73587289760464</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>57.53626961840621</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
         <v>35.76460079480934</v>
@@ -8227,16 +8227,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>64.25992043664672</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>64.37125695822481</v>
       </c>
       <c r="P5" t="n">
         <v>65.69167194305098</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>64.24098473741773</v>
       </c>
       <c r="R5" t="n">
         <v>63.14896002761616</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>47.59141193553404</v>
+        <v>40.06955035784532</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>50.63139684704925</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>51.21309064514766</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>49.45933834636135</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>49.88715133764835</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>50.86334842179818</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>51.78922952696383</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8379,7 +8379,7 @@
         <v>49.08096458553168</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>50.03507002852091</v>
       </c>
       <c r="M7" t="n">
         <v>49.55573749368652</v>
@@ -8394,7 +8394,7 @@
         <v>22.38080065798648</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.73587289760464</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8458,22 +8458,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>65.29234003482364</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>65.39593296726571</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>64.37125695822481</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>65.69167194305098</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>64.24098473741773</v>
       </c>
       <c r="R8" t="n">
         <v>63.14896002761616</v>
@@ -8531,13 +8531,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>48.72742446615302</v>
       </c>
       <c r="K9" t="n">
         <v>50.51554396615302</v>
       </c>
       <c r="L9" t="n">
-        <v>50.63139684704925</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8552,10 +8552,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>50.86334842179818</v>
+        <v>42.20547431349048</v>
       </c>
       <c r="R9" t="n">
-        <v>43.13135541865613</v>
+        <v>51.78922952696383</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>48.75306611672156</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
         <v>47.9449520549127</v>
@@ -8619,16 +8619,16 @@
         <v>21.91875989570122</v>
       </c>
       <c r="M10" t="n">
-        <v>50.69175002430551</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N10" t="n">
         <v>20.74890097560039</v>
       </c>
       <c r="O10" t="n">
-        <v>22.49918749842445</v>
+        <v>50.61549763124414</v>
       </c>
       <c r="P10" t="n">
-        <v>22.38080065798648</v>
+        <v>50.49711079080617</v>
       </c>
       <c r="Q10" t="n">
         <v>52.73587289760464</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>10.54552524689245</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>10.54552524689268</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>69.42251901233978</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>327.1723663894139</v>
+        <v>77.84761437750851</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8850,22 +8850,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>14.02669180882042</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>355.0333843341415</v>
+        <v>355.0333843341416</v>
       </c>
       <c r="N13" t="n">
-        <v>356.08472716929</v>
+        <v>356.0847271692901</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>263.8071050553073</v>
       </c>
       <c r="Q13" t="n">
         <v>152.9025226039384</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>10.54552524689245</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>10.54552524689254</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>139.0559886216537</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>257.5388967800998</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>77.84761437750831</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9084,13 +9084,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>360.6167942814526</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>355.0333843341415</v>
@@ -9099,13 +9099,13 @@
         <v>356.08472716929</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>366.8547162532817</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>134.8016380729658</v>
+        <v>49.85491140596403</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>93.73518329946347</v>
+        <v>290.2872872902121</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9181,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>539.5927596321457</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>77.84761437750794</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>396.5948854017532</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517041</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
@@ -9342,7 +9342,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039373</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9403,10 +9403,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>117.107420022831</v>
+        <v>136.5108647874326</v>
       </c>
       <c r="L20" t="n">
-        <v>516.2205229087779</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>396.5948854017533</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>77.84761437750788</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517041</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>380.190801607236</v>
       </c>
       <c r="M22" t="n">
         <v>417.7126065281028</v>
@@ -9640,19 +9640,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>288.0682987858128</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>938.2190464111247</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>240.9216765295114</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>503.1155927602439</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>77.84761437750794</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>124.3302588686723</v>
+        <v>176.7390707851528</v>
       </c>
       <c r="L26" t="n">
-        <v>941.5946329090524</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>910.102736278305</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>396.5948854017532</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>77.84761437750794</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>309.3112295234512</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>905.0604608606272</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>574.1500890512261</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>11.53473945835717</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>77.84761437750794</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,13 +10354,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>941.5946329090523</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>771.3190743826235</v>
+        <v>910.1027362783052</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>152.2174703664151</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>396.5948854017532</v>
+        <v>77.84761437750794</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>566.351227043051</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>462.6627953912124</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>479.6863508603532</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>153.6415920712575</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>101.5418627051965</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>77.84761437750794</v>
       </c>
       <c r="R36" t="n">
         <v>106.5207073584907</v>
@@ -10746,7 +10746,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464861</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10840,10 +10840,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>539.592759632146</v>
+        <v>136.5108647874334</v>
       </c>
       <c r="Q38" t="n">
-        <v>93.73518329946464</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>101.5418627051966</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>11.53473945835711</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10998,7 +10998,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>315.9153581548559</v>
       </c>
       <c r="Q40" t="n">
         <v>152.9025226039384</v>
@@ -11071,10 +11071,10 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>10.5455252468924</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>10.54552524689234</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11138,16 +11138,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>14.2248468390093</v>
       </c>
       <c r="K42" t="n">
-        <v>327.1723663894139</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>152.2489780431417</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>358.6757902350556</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>167.6817422804221</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -11232,13 +11232,13 @@
         <v>356.08472716929</v>
       </c>
       <c r="O43" t="n">
-        <v>366.8547162532818</v>
+        <v>53.1447179881057</v>
       </c>
       <c r="P43" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11314,10 +11314,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>10.54552524689237</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>10.54552524689254</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>73.5052329903459</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>299.3954040837192</v>
+        <v>77.84761437750831</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -11463,16 +11463,16 @@
         <v>360.6167942814526</v>
       </c>
       <c r="M46" t="n">
-        <v>355.0333843341415</v>
+        <v>163.1496751682595</v>
       </c>
       <c r="N46" t="n">
-        <v>356.08472716929</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>134.8016380729658</v>
+        <v>366.8547162532818</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>386.2660937474345</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>112.2130671332914</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>277.2614609331368</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.09956378146836</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>255.6336565424721</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>75.33771894044195</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>154.9778450140267</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.6069191183444</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3404886720007</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>170.3283144484277</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>64.09956378146836</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.1813372409181</v>
@@ -23560,10 +23560,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>307.921356142333</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>354.2451226616102</v>
       </c>
     </row>
     <row r="15">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.8222853925791</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>135.4935049471435</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.6069191183444</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>226.1476521602649</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>111.506372029256</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.5743746979489</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>277.2614609331368</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>64.09956378146836</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.1813372409181</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6336565424721</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>325.4642532713513</v>
       </c>
       <c r="W17" t="n">
-        <v>224.2955375863596</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>17.92647420937919</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>11.85114634893206</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>6.075327860445981</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>365.8421595658073</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.5743746979489</v>
       </c>
       <c r="H20" t="n">
-        <v>277.2614609331368</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.09956378146836</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>327.3762003037192</v>
       </c>
     </row>
     <row r="21">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>17.92647420937917</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>6.075327860446407</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>11.85114634893206</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>129.0824002258087</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.09956378146836</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>193.1819640072771</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>17.92647420937706</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>17.92647420937658</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24496,16 +24496,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>46.66208382825249</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6336565424721</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>302.295740370723</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>17.92647420937679</v>
+        <v>17.9264742093768</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>302.2957403707228</v>
       </c>
       <c r="Y29" t="n">
-        <v>302.2957403707247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>11.85114634893206</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>6.075327860444617</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>17.92647420937635</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>302.2957403707252</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>277.2614609331368</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>25.03427943758633</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>17.92647420937632</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>17.92647420937675</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>49.44397846670182</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>32.76144482535389</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>17.92647420937791</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>17.92647420937794</v>
       </c>
     </row>
     <row r="38">
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>218.8783365929345</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>227.0050602330674</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.5743746979489</v>
       </c>
       <c r="H38" t="n">
-        <v>277.2614609331368</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>64.09956378146836</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6336565424721</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>17.92647420937746</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>17.92647420937766</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>181.1520463115228</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>277.2614609331368</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>64.09956378146836</v>
       </c>
       <c r="T41" t="n">
-        <v>211.1813372409181</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6336565424721</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>288.7182360513926</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>56.907099495171</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.8222853925791</v>
       </c>
       <c r="H43" t="n">
-        <v>135.4935049471435</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>154.9778450140267</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3404886720007</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>73.29351092734754</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -25870,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>409.1156175142019</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.5743746979489</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>64.09956378146836</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6336565424721</v>
+        <v>197.8043658514546</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>156.4010149796237</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.8222853925791</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>135.4935049471435</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>75.55129030293031</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>11.85114634893206</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>154.9778450140267</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.6069191183444</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3404886720007</v>
+        <v>1.777783102084754</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465619.869196853</v>
+        <v>465619.8691968531</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>465619.869196853</v>
+        <v>465619.8691968533</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>637377.6142567566</v>
+        <v>637377.6142567567</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>637377.6142567565</v>
+        <v>637377.6142567568</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>637377.6142567566</v>
+        <v>637377.6142567567</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>465619.8691968533</v>
+        <v>465619.8691968534</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>465619.8691968534</v>
+        <v>465619.8691968533</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>465954.1344089306</v>
+        <v>465954.1344089305</v>
       </c>
       <c r="C2" t="n">
         <v>465954.1344089305</v>
@@ -26328,34 +26328,34 @@
         <v>246015.0672674155</v>
       </c>
       <c r="G2" t="n">
+        <v>341237.3285983511</v>
+      </c>
+      <c r="H2" t="n">
         <v>341237.328598351</v>
-      </c>
-      <c r="H2" t="n">
-        <v>341237.3285983511</v>
       </c>
       <c r="I2" t="n">
         <v>453308.1186361272</v>
       </c>
       <c r="J2" t="n">
-        <v>446359.7533573028</v>
+        <v>446359.753357303</v>
       </c>
       <c r="K2" t="n">
-        <v>446359.7533573028</v>
+        <v>446359.7533573029</v>
       </c>
       <c r="L2" t="n">
-        <v>446359.7533573028</v>
+        <v>446359.7533573029</v>
       </c>
       <c r="M2" t="n">
-        <v>341237.3285983513</v>
+        <v>341237.3285983512</v>
       </c>
       <c r="N2" t="n">
-        <v>341237.3285983513</v>
+        <v>341237.3285983512</v>
       </c>
       <c r="O2" t="n">
         <v>246015.0672674156</v>
       </c>
       <c r="P2" t="n">
-        <v>246015.0672674157</v>
+        <v>246015.0672674156</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640955</v>
+        <v>9422.422200640931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>320389.9842159034</v>
       </c>
       <c r="E4" t="n">
-        <v>18288.1856032715</v>
+        <v>18288.18560327151</v>
       </c>
       <c r="F4" t="n">
         <v>18288.1856032715</v>
       </c>
       <c r="G4" t="n">
-        <v>60975.95325175612</v>
+        <v>60975.95325175615</v>
       </c>
       <c r="H4" t="n">
-        <v>60975.95325175611</v>
+        <v>60975.95325175614</v>
       </c>
       <c r="I4" t="n">
-        <v>111216.8504794347</v>
+        <v>111216.8504794348</v>
       </c>
       <c r="J4" t="n">
         <v>108101.9254775131</v>
@@ -26450,13 +26450,13 @@
         <v>108101.9254775131</v>
       </c>
       <c r="M4" t="n">
-        <v>60975.95325175617</v>
+        <v>60975.95325175618</v>
       </c>
       <c r="N4" t="n">
         <v>60975.95325175617</v>
       </c>
       <c r="O4" t="n">
-        <v>18288.1856032715</v>
+        <v>18288.18560327149</v>
       </c>
       <c r="P4" t="n">
         <v>18288.1856032715</v>
@@ -26484,28 +26484,28 @@
         <v>36906.38133073856</v>
       </c>
       <c r="G5" t="n">
-        <v>54906.32168940932</v>
+        <v>54906.32168940933</v>
       </c>
       <c r="H5" t="n">
-        <v>54906.32168940932</v>
+        <v>54906.32168940933</v>
       </c>
       <c r="I5" t="n">
         <v>82478.53923350145</v>
       </c>
       <c r="J5" t="n">
-        <v>80769.067577426</v>
+        <v>80769.06757742602</v>
       </c>
       <c r="K5" t="n">
-        <v>80769.067577426</v>
+        <v>80769.06757742602</v>
       </c>
       <c r="L5" t="n">
-        <v>80769.067577426</v>
+        <v>80769.06757742602</v>
       </c>
       <c r="M5" t="n">
         <v>54906.32168940934</v>
       </c>
       <c r="N5" t="n">
-        <v>54906.32168940934</v>
+        <v>54906.32168940935</v>
       </c>
       <c r="O5" t="n">
         <v>36906.38133073856</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100804.6563363108</v>
+        <v>100804.6563363107</v>
       </c>
       <c r="C6" t="n">
-        <v>110227.0785369517</v>
+        <v>110227.0785369516</v>
       </c>
       <c r="D6" t="n">
-        <v>110227.0785369517</v>
+        <v>110227.0785369516</v>
       </c>
       <c r="E6" t="n">
-        <v>-280182.0428236837</v>
+        <v>-280869.352408501</v>
       </c>
       <c r="F6" t="n">
-        <v>190820.5003334054</v>
+        <v>190133.1907485882</v>
       </c>
       <c r="G6" t="n">
-        <v>144211.7369926086</v>
+        <v>143821.9969744505</v>
       </c>
       <c r="H6" t="n">
-        <v>225355.0536571857</v>
+        <v>224965.3136390274</v>
       </c>
       <c r="I6" t="n">
-        <v>139020.1029109785</v>
+        <v>138980.5841116884</v>
       </c>
       <c r="J6" t="n">
-        <v>257488.7603023637</v>
+        <v>257427.5278615775</v>
       </c>
       <c r="K6" t="n">
-        <v>257488.7603023637</v>
+        <v>257427.5278615774</v>
       </c>
       <c r="L6" t="n">
-        <v>257488.7603023637</v>
+        <v>257427.5278615775</v>
       </c>
       <c r="M6" t="n">
-        <v>225355.0536571858</v>
+        <v>224965.3136390276</v>
       </c>
       <c r="N6" t="n">
-        <v>225355.0536571858</v>
+        <v>224965.3136390276</v>
       </c>
       <c r="O6" t="n">
-        <v>190820.5003334055</v>
+        <v>190133.1907485883</v>
       </c>
       <c r="P6" t="n">
-        <v>190820.5003334056</v>
+        <v>190133.1907485883</v>
       </c>
     </row>
   </sheetData>
@@ -26804,13 +26804,13 @@
         <v>453.4904201330939</v>
       </c>
       <c r="G4" t="n">
-        <v>749.5420707691262</v>
+        <v>749.5420707691264</v>
       </c>
       <c r="H4" t="n">
-        <v>749.5420707691262</v>
+        <v>749.5420707691264</v>
       </c>
       <c r="I4" t="n">
-        <v>1203.03249090222</v>
+        <v>1203.032490902221</v>
       </c>
       <c r="J4" t="n">
         <v>1174.916180769401</v>
@@ -26825,7 +26825,7 @@
         <v>749.5420707691266</v>
       </c>
       <c r="N4" t="n">
-        <v>749.5420707691266</v>
+        <v>749.5420707691267</v>
       </c>
       <c r="O4" t="n">
         <v>453.4904201330939</v>
@@ -27463,16 +27463,16 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>74.68524876704814</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>75.53860425697246</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>93.11323406457203</v>
+        <v>68.34838809958447</v>
       </c>
       <c r="H3" t="n">
         <v>24.72602217249382</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>55.74615899937044</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
         <v>140.4611363452985</v>
@@ -27517,10 +27517,10 @@
         <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>202.9234074721264</v>
+        <v>174.8070973393067</v>
       </c>
       <c r="W3" t="n">
-        <v>194.556163395115</v>
+        <v>166.4398532622953</v>
       </c>
       <c r="X3" t="n">
         <v>161.8425727710037</v>
@@ -27545,19 +27545,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>139.7812778236874</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>142.0268463503655</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>136.4780898758905</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>114.2419956741075</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>70.65457244430709</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,13 +27590,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>216.1411083313714</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>249.2662938818791</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>250.7780425852317</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -27703,16 +27703,16 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E6" t="n">
-        <v>78.89006842480455</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F6" t="n">
-        <v>64.5930618811052</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
-        <v>64.99692393175235</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H6" t="n">
-        <v>24.72602217249382</v>
+        <v>28.07748634032594</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>80.51100496435802</v>
+        <v>52.39469483153834</v>
       </c>
       <c r="T6" t="n">
-        <v>140.4611363452985</v>
+        <v>112.3448262124788</v>
       </c>
       <c r="U6" t="n">
         <v>182.9205141195597</v>
       </c>
       <c r="V6" t="n">
-        <v>202.9234074721264</v>
+        <v>174.8070973393067</v>
       </c>
       <c r="W6" t="n">
         <v>194.556163395115</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>160.1479988921253</v>
       </c>
       <c r="C7" t="n">
-        <v>145.4879915248856</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>18.4519170468789</v>
       </c>
       <c r="S7" t="n">
         <v>140.3173868732368</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>216.1411083313714</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
@@ -27836,10 +27836,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>243.9875696563924</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>212.0219474558332</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -27940,16 +27940,16 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E9" t="n">
-        <v>103.6549143897921</v>
+        <v>75.53860425697246</v>
       </c>
       <c r="F9" t="n">
-        <v>92.70937201392488</v>
+        <v>64.5930618811052</v>
       </c>
       <c r="G9" t="n">
-        <v>68.34838809958447</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H9" t="n">
-        <v>52.84233230531351</v>
+        <v>24.72602217249382</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,16 +27982,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>52.39469483153834</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T9" t="n">
-        <v>140.4611363452985</v>
+        <v>115.6962903803109</v>
       </c>
       <c r="U9" t="n">
-        <v>154.80420398674</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V9" t="n">
-        <v>174.8070973393067</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W9" t="n">
         <v>194.556163395115</v>
@@ -28016,13 +28016,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>133.5672950116773</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>142.0268463503655</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -28061,10 +28061,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>140.3173868732368</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>216.1411083313714</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -28073,13 +28073,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>247.3390338242245</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>212.0219474558332</v>
       </c>
       <c r="Y10" t="n">
-        <v>195.9630304943357</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>26.98029760220071</v>
+      </c>
+      <c r="P2" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="K2" t="n">
+      <c r="Q2" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>26.98029760220071</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>28.11631013281968</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="K3" t="n">
-        <v>26.98029760220071</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>28.11631013281968</v>
       </c>
       <c r="O3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>19.45843602451199</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>28.11631013281968</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>26.98029760220071</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34947,16 +34947,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>26.98029760220071</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="R5" t="n">
         <v>28.11631013281968</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>26.98029760220071</v>
+        <v>19.45843602451198</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="M6" t="n">
+      <c r="Q6" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="N6" t="n">
+      <c r="R6" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35099,7 +35099,7 @@
         <v>28.11631013281968</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="M7" t="n">
         <v>26.98029760220071</v>
@@ -35114,7 +35114,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="R8" t="n">
         <v>28.11631013281968</v>
@@ -35251,31 +35251,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="K9" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>19.45843602451199</v>
+      </c>
+      <c r="R9" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="R9" t="n">
-        <v>19.45843602451199</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>26.98029760220071</v>
@@ -35339,16 +35339,16 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="Q10" t="n">
         <v>28.11631013281968</v>
@@ -35409,10 +35409,10 @@
         <v>31.81240346031242</v>
       </c>
       <c r="J11" t="n">
-        <v>127.2185045261179</v>
+        <v>116.6729792792254</v>
       </c>
       <c r="K11" t="n">
-        <v>183.1908437260755</v>
+        <v>193.7363689729682</v>
       </c>
       <c r="L11" t="n">
         <v>233.3215478603483</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J12" t="n">
-        <v>135.8233581705034</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K12" t="n">
-        <v>453.4904201330939</v>
+        <v>204.1656681211885</v>
       </c>
       <c r="L12" t="n">
         <v>177.4536592862605</v>
@@ -35570,10 +35570,10 @@
         <v>112.660552071738</v>
       </c>
       <c r="K13" t="n">
-        <v>318.5214387406403</v>
+        <v>68.74102549415339</v>
       </c>
       <c r="L13" t="n">
-        <v>106.9003176604617</v>
+        <v>92.87362585164126</v>
       </c>
       <c r="M13" t="n">
         <v>453.4904201330939</v>
@@ -35585,7 +35585,7 @@
         <v>86.63570387981216</v>
       </c>
       <c r="P13" t="n">
-        <v>71.00295255117602</v>
+        <v>334.8100576064833</v>
       </c>
       <c r="Q13" t="n">
         <v>192.9370301044569</v>
@@ -35646,7 +35646,7 @@
         <v>31.81240346031242</v>
       </c>
       <c r="J14" t="n">
-        <v>116.6729792792254</v>
+        <v>127.2185045261179</v>
       </c>
       <c r="K14" t="n">
         <v>183.1908437260755</v>
@@ -35667,7 +35667,7 @@
         <v>209.9493111369805</v>
       </c>
       <c r="Q14" t="n">
-        <v>160.3015716077118</v>
+        <v>149.7560463608193</v>
       </c>
       <c r="R14" t="n">
         <v>73.09277834049561</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J15" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K15" t="n">
         <v>126.31805374368</v>
       </c>
       <c r="L15" t="n">
-        <v>316.5096479079143</v>
+        <v>177.4536592862605</v>
       </c>
       <c r="M15" t="n">
         <v>210.2573141538332</v>
@@ -35740,10 +35740,10 @@
         <v>218.187254971653</v>
       </c>
       <c r="O15" t="n">
-        <v>453.4904201330939</v>
+        <v>195.9515233529941</v>
       </c>
       <c r="P15" t="n">
-        <v>154.0950160493747</v>
+        <v>231.942630426883</v>
       </c>
       <c r="Q15" t="n">
         <v>94.81462989803825</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>33.95174737656544</v>
+        <v>112.660552071738</v>
       </c>
       <c r="K16" t="n">
         <v>68.74102549415339</v>
       </c>
       <c r="L16" t="n">
-        <v>453.4904201330939</v>
+        <v>92.87362585164126</v>
       </c>
       <c r="M16" t="n">
         <v>453.4904201330939</v>
@@ -35819,13 +35819,13 @@
         <v>453.4904201330939</v>
       </c>
       <c r="O16" t="n">
-        <v>86.63570387981216</v>
+        <v>453.4904201330939</v>
       </c>
       <c r="P16" t="n">
         <v>71.00295255117602</v>
       </c>
       <c r="Q16" t="n">
-        <v>174.8361455734842</v>
+        <v>89.88941890648248</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>512.3590587818782</v>
       </c>
       <c r="K17" t="n">
-        <v>276.926027025539</v>
+        <v>473.4781310162876</v>
       </c>
       <c r="L17" t="n">
         <v>233.3215478603483</v>
@@ -35901,13 +35901,13 @@
         <v>252.6282354634544</v>
       </c>
       <c r="P17" t="n">
-        <v>749.5420707691262</v>
+        <v>209.9493111369805</v>
       </c>
       <c r="Q17" t="n">
-        <v>149.7560463608193</v>
+        <v>646.5731245049963</v>
       </c>
       <c r="R17" t="n">
-        <v>226.8692008432745</v>
+        <v>73.09277834049561</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J18" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K18" t="n">
-        <v>126.31805374368</v>
+        <v>204.1656681211879</v>
       </c>
       <c r="L18" t="n">
         <v>177.4536592862605</v>
@@ -35974,7 +35974,7 @@
         <v>210.2573141538332</v>
       </c>
       <c r="N18" t="n">
-        <v>614.7821403734063</v>
+        <v>218.187254971653</v>
       </c>
       <c r="O18" t="n">
         <v>195.9515233529941</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>112.6605520717359</v>
+        <v>112.660552071738</v>
       </c>
       <c r="K19" t="n">
         <v>318.5214387406403</v>
@@ -36062,7 +36062,7 @@
         <v>386.9183107060322</v>
       </c>
       <c r="Q19" t="n">
-        <v>192.9370301044569</v>
+        <v>192.9370301044557</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,10 +36123,10 @@
         <v>512.3590587818782</v>
       </c>
       <c r="K20" t="n">
-        <v>300.2982637489065</v>
+        <v>319.7017085135081</v>
       </c>
       <c r="L20" t="n">
-        <v>749.5420707691262</v>
+        <v>233.3215478603483</v>
       </c>
       <c r="M20" t="n">
         <v>264.8134444910957</v>
@@ -36141,7 +36141,7 @@
         <v>209.9493111369805</v>
       </c>
       <c r="Q20" t="n">
-        <v>149.7560463608193</v>
+        <v>646.5731245049963</v>
       </c>
       <c r="R20" t="n">
         <v>226.8692008432745</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J21" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K21" t="n">
         <v>126.31805374368</v>
@@ -36208,10 +36208,10 @@
         <v>177.4536592862605</v>
       </c>
       <c r="M21" t="n">
-        <v>606.8521995555866</v>
+        <v>210.2573141538332</v>
       </c>
       <c r="N21" t="n">
-        <v>218.187254971653</v>
+        <v>296.0348693491609</v>
       </c>
       <c r="O21" t="n">
         <v>195.9515233529941</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>112.6605520717359</v>
+        <v>112.660552071738</v>
       </c>
       <c r="K22" t="n">
         <v>318.5214387406403</v>
       </c>
       <c r="L22" t="n">
-        <v>473.0644274588786</v>
+        <v>473.0644274588773</v>
       </c>
       <c r="M22" t="n">
         <v>516.1696423270552</v>
@@ -36360,19 +36360,19 @@
         <v>512.3590587818782</v>
       </c>
       <c r="K23" t="n">
-        <v>183.1908437260755</v>
+        <v>471.2591425118883</v>
       </c>
       <c r="L23" t="n">
         <v>233.3215478603483</v>
       </c>
       <c r="M23" t="n">
-        <v>1203.03249090222</v>
+        <v>264.8134444910957</v>
       </c>
       <c r="N23" t="n">
         <v>269.8557199087733</v>
       </c>
       <c r="O23" t="n">
-        <v>493.5499119929658</v>
+        <v>1143.700659618279</v>
       </c>
       <c r="P23" t="n">
         <v>962.9582882582498</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J24" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K24" t="n">
         <v>126.31805374368</v>
@@ -36445,7 +36445,7 @@
         <v>177.4536592862605</v>
       </c>
       <c r="M24" t="n">
-        <v>713.3729069140771</v>
+        <v>210.2573141538332</v>
       </c>
       <c r="N24" t="n">
         <v>218.187254971653</v>
@@ -36457,10 +36457,10 @@
         <v>154.0950160493747</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.81462989803825</v>
+        <v>172.6622442755462</v>
       </c>
       <c r="R24" t="n">
-        <v>33.50832630594552</v>
+        <v>140.0290336644362</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>31.81240346031242</v>
       </c>
       <c r="J26" t="n">
-        <v>116.6729792792254</v>
+        <v>512.3590587818782</v>
       </c>
       <c r="K26" t="n">
-        <v>307.5211025947478</v>
+        <v>359.9299145112283</v>
       </c>
       <c r="L26" t="n">
-        <v>1174.916180769401</v>
+        <v>233.3215478603483</v>
       </c>
       <c r="M26" t="n">
-        <v>1174.916180769401</v>
+        <v>264.8134444910957</v>
       </c>
       <c r="N26" t="n">
         <v>269.8557199087733</v>
@@ -36612,13 +36612,13 @@
         <v>1143.700659618279</v>
       </c>
       <c r="P26" t="n">
-        <v>209.9493111369805</v>
+        <v>962.9582882582498</v>
       </c>
       <c r="Q26" t="n">
-        <v>149.7560463608193</v>
+        <v>646.5731245049963</v>
       </c>
       <c r="R26" t="n">
-        <v>73.09277834049561</v>
+        <v>226.8692008432745</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J27" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K27" t="n">
         <v>126.31805374368</v>
@@ -36685,7 +36685,7 @@
         <v>210.2573141538332</v>
       </c>
       <c r="N27" t="n">
-        <v>614.7821403734063</v>
+        <v>218.187254971653</v>
       </c>
       <c r="O27" t="n">
         <v>195.9515233529941</v>
@@ -36694,7 +36694,7 @@
         <v>154.0950160493747</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.81462989803825</v>
+        <v>172.6622442755462</v>
       </c>
       <c r="R27" t="n">
         <v>140.0290336644362</v>
@@ -36831,31 +36831,31 @@
         <v>31.81240346031242</v>
       </c>
       <c r="J29" t="n">
-        <v>116.6729792792254</v>
+        <v>512.3590587818782</v>
       </c>
       <c r="K29" t="n">
-        <v>183.1908437260755</v>
+        <v>941.691109142601</v>
       </c>
       <c r="L29" t="n">
-        <v>233.3215478603483</v>
+        <v>542.6327773837995</v>
       </c>
       <c r="M29" t="n">
         <v>264.8134444910957</v>
       </c>
       <c r="N29" t="n">
-        <v>1174.916180769401</v>
+        <v>269.8557199087733</v>
       </c>
       <c r="O29" t="n">
-        <v>1143.700659618279</v>
+        <v>252.6282354634544</v>
       </c>
       <c r="P29" t="n">
-        <v>784.0994001882066</v>
+        <v>962.9582882582498</v>
       </c>
       <c r="Q29" t="n">
         <v>646.5731245049963</v>
       </c>
       <c r="R29" t="n">
-        <v>73.09277834049561</v>
+        <v>226.8692008432745</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J30" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K30" t="n">
         <v>126.31805374368</v>
       </c>
       <c r="L30" t="n">
-        <v>188.9883987446177</v>
+        <v>177.4536592862605</v>
       </c>
       <c r="M30" t="n">
         <v>210.2573141538332</v>
@@ -36931,10 +36931,10 @@
         <v>154.0950160493747</v>
       </c>
       <c r="Q30" t="n">
-        <v>586.3954831999251</v>
+        <v>172.6622442755462</v>
       </c>
       <c r="R30" t="n">
-        <v>33.50832630594552</v>
+        <v>140.0290336644362</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37074,13 +37074,13 @@
         <v>941.691109142601</v>
       </c>
       <c r="L32" t="n">
+        <v>233.3215478603483</v>
+      </c>
+      <c r="M32" t="n">
         <v>1174.916180769401</v>
       </c>
-      <c r="M32" t="n">
-        <v>1036.132518873719</v>
-      </c>
       <c r="N32" t="n">
-        <v>269.8557199087733</v>
+        <v>422.0731902751884</v>
       </c>
       <c r="O32" t="n">
         <v>252.6282354634544</v>
@@ -37089,10 +37089,10 @@
         <v>209.9493111369805</v>
       </c>
       <c r="Q32" t="n">
-        <v>149.7560463608193</v>
+        <v>646.5731245049963</v>
       </c>
       <c r="R32" t="n">
-        <v>73.09277834049561</v>
+        <v>226.8692008432745</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J33" t="n">
-        <v>66.40083915816363</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K33" t="n">
         <v>126.31805374368</v>
@@ -37168,7 +37168,7 @@
         <v>154.0950160493747</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.4095152997915</v>
+        <v>172.6622442755462</v>
       </c>
       <c r="R33" t="n">
         <v>140.0290336644362</v>
@@ -37305,22 +37305,22 @@
         <v>31.81240346031242</v>
       </c>
       <c r="J35" t="n">
-        <v>512.3590587818782</v>
+        <v>116.6729792792254</v>
       </c>
       <c r="K35" t="n">
-        <v>183.1908437260755</v>
+        <v>749.5420707691266</v>
       </c>
       <c r="L35" t="n">
-        <v>233.3215478603483</v>
+        <v>695.9843432515607</v>
       </c>
       <c r="M35" t="n">
         <v>264.8134444910957</v>
       </c>
       <c r="N35" t="n">
-        <v>749.5420707691266</v>
+        <v>269.8557199087733</v>
       </c>
       <c r="O35" t="n">
-        <v>406.269827534712</v>
+        <v>252.6282354634544</v>
       </c>
       <c r="P35" t="n">
         <v>209.9493111369805</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>15.53662559428537</v>
+        <v>39.2308739219741</v>
       </c>
       <c r="J36" t="n">
         <v>361.4538618547203</v>
@@ -37399,13 +37399,13 @@
         <v>218.187254971653</v>
       </c>
       <c r="O36" t="n">
-        <v>297.4933860581906</v>
+        <v>195.9515233529941</v>
       </c>
       <c r="P36" t="n">
         <v>154.0950160493747</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.81462989803825</v>
+        <v>172.6622442755462</v>
       </c>
       <c r="R36" t="n">
         <v>140.0290336644362</v>
@@ -37466,7 +37466,7 @@
         <v>112.660552071738</v>
       </c>
       <c r="K37" t="n">
-        <v>318.5214387406395</v>
+        <v>318.5214387406403</v>
       </c>
       <c r="L37" t="n">
         <v>473.0644274588786</v>
@@ -37560,10 +37560,10 @@
         <v>252.6282354634544</v>
       </c>
       <c r="P38" t="n">
-        <v>749.5420707691266</v>
+        <v>346.4601759244139</v>
       </c>
       <c r="Q38" t="n">
-        <v>243.4912296602839</v>
+        <v>646.5731245049963</v>
       </c>
       <c r="R38" t="n">
         <v>226.8692008432745</v>
@@ -37621,7 +37621,7 @@
         <v>15.53662559428537</v>
       </c>
       <c r="J39" t="n">
-        <v>361.4538618547203</v>
+        <v>66.40083915816363</v>
       </c>
       <c r="K39" t="n">
         <v>126.31805374368</v>
@@ -37639,13 +37639,13 @@
         <v>195.9515233529941</v>
       </c>
       <c r="P39" t="n">
-        <v>255.6368787545713</v>
+        <v>154.0950160493747</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.81462989803825</v>
+        <v>586.3954831999251</v>
       </c>
       <c r="R39" t="n">
-        <v>140.0290336644362</v>
+        <v>45.04306576430263</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37718,7 +37718,7 @@
         <v>468.1532031759771</v>
       </c>
       <c r="P40" t="n">
-        <v>386.9183107060322</v>
+        <v>386.9183107060319</v>
       </c>
       <c r="Q40" t="n">
         <v>192.9370301044569</v>
@@ -37791,10 +37791,10 @@
         <v>264.8134444910957</v>
       </c>
       <c r="N41" t="n">
-        <v>280.4012451556657</v>
+        <v>269.8557199087733</v>
       </c>
       <c r="O41" t="n">
-        <v>252.6282354634544</v>
+        <v>263.1737607103468</v>
       </c>
       <c r="P41" t="n">
         <v>209.9493111369805</v>
@@ -37858,16 +37858,16 @@
         <v>39.2308739219741</v>
       </c>
       <c r="J42" t="n">
-        <v>66.40083915816363</v>
+        <v>80.62568599717294</v>
       </c>
       <c r="K42" t="n">
-        <v>453.4904201330939</v>
+        <v>126.31805374368</v>
       </c>
       <c r="L42" t="n">
         <v>177.4536592862605</v>
       </c>
       <c r="M42" t="n">
-        <v>362.506292196975</v>
+        <v>210.2573141538332</v>
       </c>
       <c r="N42" t="n">
         <v>218.187254971653</v>
@@ -37879,10 +37879,10 @@
         <v>154.0950160493747</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.81462989803825</v>
+        <v>453.4904201330939</v>
       </c>
       <c r="R42" t="n">
-        <v>33.50832630594552</v>
+        <v>140.0290336644362</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.95174737656544</v>
+        <v>112.660552071738</v>
       </c>
       <c r="K43" t="n">
-        <v>68.74102549415339</v>
+        <v>318.5214387406403</v>
       </c>
       <c r="L43" t="n">
-        <v>260.5553681320633</v>
+        <v>92.87362585164126</v>
       </c>
       <c r="M43" t="n">
         <v>98.45703579895236</v>
@@ -37952,13 +37952,13 @@
         <v>453.4904201330939</v>
       </c>
       <c r="O43" t="n">
-        <v>453.4904201330939</v>
+        <v>139.7804218679179</v>
       </c>
       <c r="P43" t="n">
         <v>386.9183107060322</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.03450750051844</v>
+        <v>192.9370301044569</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38034,10 +38034,10 @@
         <v>252.6282354634544</v>
       </c>
       <c r="P44" t="n">
-        <v>220.4948363838729</v>
+        <v>209.9493111369805</v>
       </c>
       <c r="Q44" t="n">
-        <v>149.7560463608193</v>
+        <v>160.3015716077118</v>
       </c>
       <c r="R44" t="n">
         <v>73.09277834049561</v>
@@ -38095,7 +38095,7 @@
         <v>39.2308739219741</v>
       </c>
       <c r="J45" t="n">
-        <v>139.9060721485095</v>
+        <v>361.4538618547203</v>
       </c>
       <c r="K45" t="n">
         <v>126.31805374368</v>
@@ -38113,7 +38113,7 @@
         <v>195.9515233529941</v>
       </c>
       <c r="P45" t="n">
-        <v>453.4904201330939</v>
+        <v>231.942630426883</v>
       </c>
       <c r="Q45" t="n">
         <v>94.81462989803825</v>
@@ -38183,16 +38183,16 @@
         <v>453.4904201330939</v>
       </c>
       <c r="M46" t="n">
+        <v>261.6067109672118</v>
+      </c>
+      <c r="N46" t="n">
+        <v>97.40569296380386</v>
+      </c>
+      <c r="O46" t="n">
         <v>453.4904201330939</v>
       </c>
-      <c r="N46" t="n">
-        <v>453.4904201330939</v>
-      </c>
-      <c r="O46" t="n">
-        <v>221.437341952778</v>
-      </c>
       <c r="P46" t="n">
-        <v>71.00295255117602</v>
+        <v>386.9183107060322</v>
       </c>
       <c r="Q46" t="n">
         <v>40.03450750051844</v>
